--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_39.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_15_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2049819.715563285</v>
+        <v>1995217.302208163</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3003638.261695865</v>
+        <v>3126748.63871304</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10834384.46297051</v>
+        <v>10778867.00561137</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6042281.959082469</v>
+        <v>6039029.466070168</v>
       </c>
     </row>
     <row r="11">
@@ -1846,10 +1846,10 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>95.81938868650676</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>95.81938868650676</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -1861,10 +1861,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>104.4014928934812</v>
       </c>
       <c r="I17" t="n">
-        <v>95.81938868650676</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,19 +1891,19 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>84.39771755507512</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>104.4014928934812</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>104.4014928934812</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>91.95683494057813</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1973,25 +1973,25 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>95.81938868650676</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>95.81938868650676</v>
+        <v>104.4014928934812</v>
       </c>
       <c r="V18" t="n">
-        <v>95.81938868650676</v>
+        <v>104.4014928934812</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>104.4014928934812</v>
       </c>
       <c r="Y18" t="n">
-        <v>84.39771755507512</v>
+        <v>91.95683494057813</v>
       </c>
     </row>
     <row r="19">
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>95.81938868650676</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>95.81938868650676</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,13 +2019,13 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>91.95683494057813</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>48.60821439340423</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2046,25 +2046,25 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>35.78950316167091</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>95.81938868650676</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>104.4014928934812</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>104.4014928934812</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>104.4014928934812</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>114.1206651911212</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>114.1206651911212</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>114.1206651911212</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>99.45454136075324</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>104.4014928934811</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>104.4014928934811</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>96.90378647330604</v>
       </c>
       <c r="X20" t="n">
-        <v>100.5174819003395</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2159,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>109.7046078427455</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2177,7 +2177,7 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>61.82086765610003</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>49.7432575722467</v>
       </c>
       <c r="S21" t="n">
-        <v>104.9335392487153</v>
+        <v>104.4014928934811</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>84.79420260571256</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2222,13 +2222,13 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>114.1206651911212</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>114.1206651911212</v>
+        <v>104.4014928934811</v>
       </c>
     </row>
     <row r="22">
@@ -2238,22 +2238,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>114.1206651911212</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>103.4757435401239</v>
+        <v>104.4014928934811</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>98.20089643781591</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>96.01938606617273</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>95.0064714425348</v>
       </c>
       <c r="G22" t="n">
-        <v>111.1624035513369</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2283,10 +2283,10 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>11.53306678101701</v>
       </c>
       <c r="R22" t="n">
-        <v>114.1206651911212</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2365,7 +2365,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>60.4724850897346</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>119.6234367348303</v>
@@ -2374,19 +2374,19 @@
         <v>133.6992167127163</v>
       </c>
       <c r="U23" t="n">
-        <v>161.9490200564214</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>218.5698048050575</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.0142888776591</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>176.0109645827789</v>
       </c>
     </row>
     <row r="24">
@@ -2396,25 +2396,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D24" t="n">
-        <v>58.04843271322368</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>68.24844760398587</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>55.6725795419688</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>24.85422813080868</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2450,16 +2450,16 @@
         <v>82.28653825242274</v>
       </c>
       <c r="T24" t="n">
-        <v>110.7680958434065</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>136.5447492295597</v>
+        <v>104.7775605988587</v>
       </c>
       <c r="V24" t="n">
         <v>143.4039542980102</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X24" t="n">
         <v>116.3763523520624</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.05661402724878</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>59.21884016679728</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>57.03732979515409</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>56.02441517151617</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>78.59434650704368</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2526,22 +2526,22 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>51.15763814942707</v>
       </c>
       <c r="T25" t="n">
-        <v>138.5489565768664</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W25" t="n">
-        <v>197.1263654851759</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>136.3130225376221</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>241.0142888776591</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -2563,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>67.36259249672153</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="G26" t="n">
-        <v>212.2853856434421</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>133.6992167127163</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2620,10 +2620,10 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2633,25 +2633,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>77.13655079845226</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>83.31186613690066</v>
       </c>
       <c r="D27" t="n">
-        <v>58.04843271322368</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>68.24844760398587</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>55.6725795419688</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2681,13 +2681,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>82.28653825242274</v>
+        <v>50.5193496217217</v>
       </c>
       <c r="T27" t="n">
-        <v>110.7680958434065</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
         <v>136.5447492295597</v>
@@ -2696,10 +2696,10 @@
         <v>143.4039542980102</v>
       </c>
       <c r="W27" t="n">
-        <v>130.469379181643</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>116.3763523520624</v>
       </c>
       <c r="Y27" t="n">
         <v>116.2860629258893</v>
@@ -2712,19 +2712,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>90.43534733052222</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>59.21884016679728</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>57.03732979515409</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>56.02441517151617</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2736,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>3.962547265257697</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>134.6199651855572</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>138.5489565768664</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>97.72201350338902</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>114.3326325041286</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>67.36259249672153</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>119.6234367348303</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
         <v>133.6992167127163</v>
       </c>
       <c r="U29" t="n">
-        <v>161.9490200564214</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>238.3556256187198</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="X29" t="n">
-        <v>40.68666427607226</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2876,19 +2876,19 @@
         <v>83.31186613690066</v>
       </c>
       <c r="D30" t="n">
-        <v>42.76270174304807</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.8686698239027651</v>
       </c>
       <c r="F30" t="n">
-        <v>55.6725795419688</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>47.94688431179556</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>22.83881138508139</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2918,22 +2918,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>10.76120130122806</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>82.28653825242274</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U30" t="n">
         <v>136.5447492295597</v>
       </c>
       <c r="V30" t="n">
-        <v>143.4039542980102</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>0</v>
+        <v>162.2983503095045</v>
       </c>
       <c r="X30" t="n">
         <v>116.3763523520624</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>85.5685703084331</v>
+        <v>39.68061002753742</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>56.02441517151617</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3000,16 +3000,16 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U31" t="n">
-        <v>196.9223965050758</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>162.7410104724129</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3018,7 +3018,7 @@
         <v>136.3130225376221</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>129.1880205006797</v>
       </c>
     </row>
     <row r="32">
@@ -3085,19 +3085,19 @@
         <v>110.8604053276349</v>
       </c>
       <c r="U32" t="n">
-        <v>6.279086903813941</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V32" t="n">
-        <v>215.5168142336385</v>
+        <v>45.97715591856531</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3116,10 +3116,10 @@
         <v>35.20962132814229</v>
       </c>
       <c r="E33" t="n">
-        <v>45.40963621890448</v>
+        <v>2.696323736768663</v>
       </c>
       <c r="F33" t="n">
-        <v>32.83376815688742</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
         <v>25.10807292671417</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>33.35166283263632</v>
+        <v>59.44772686734136</v>
       </c>
       <c r="T33" t="n">
         <v>87.92928445832514</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>65.05794714067302</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>111.7811538004758</v>
+        <v>95.30258007678081</v>
       </c>
       <c r="T34" t="n">
         <v>115.710145191785</v>
@@ -3252,7 +3252,7 @@
         <v>174.2875541000946</v>
       </c>
       <c r="X34" t="n">
-        <v>31.93769028817267</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3265,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>201.0618092094378</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>49.71128378850655</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -3331,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>162.5741018549355</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>241.0142888776591</v>
+        <v>228.2718088208877</v>
       </c>
     </row>
     <row r="36">
@@ -3344,22 +3344,22 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>66.37534949722421</v>
+        <v>54.29773941337088</v>
       </c>
       <c r="C36" t="n">
-        <v>72.55066483567261</v>
+        <v>60.47305475181928</v>
       </c>
       <c r="D36" t="n">
-        <v>47.28723141199562</v>
+        <v>35.20962132814229</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>27.80439666348283</v>
       </c>
       <c r="F36" t="n">
-        <v>44.91137824074075</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>37.1856830105675</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3395,25 +3395,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>71.52533695119469</v>
+        <v>59.44772686734136</v>
       </c>
       <c r="T36" t="n">
-        <v>100.0068945421785</v>
+        <v>87.92928445832514</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1657991062911526</v>
+        <v>113.7059378444784</v>
       </c>
       <c r="V36" t="n">
-        <v>132.6427529967821</v>
+        <v>120.5651429129288</v>
       </c>
       <c r="W36" t="n">
-        <v>151.5371490082765</v>
+        <v>139.4595389244232</v>
       </c>
       <c r="X36" t="n">
-        <v>105.6151510508343</v>
+        <v>93.53754096698101</v>
       </c>
       <c r="Y36" t="n">
-        <v>105.5248616246612</v>
+        <v>93.4472515408079</v>
       </c>
     </row>
     <row r="37">
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>67.59653594544083</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>20.95440361664657</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>36.38002878171589</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>49.99172827094311</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>43.21503069076182</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>77.13555722452635</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>127.7877552756384</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>186.1611952038477</v>
+        <v>174.0835851199944</v>
       </c>
       <c r="V37" t="n">
-        <v>151.9798091711849</v>
+        <v>139.9021990873316</v>
       </c>
       <c r="W37" t="n">
-        <v>49.44601147145863</v>
+        <v>174.2875541000946</v>
       </c>
       <c r="X37" t="n">
-        <v>125.551821236394</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>106.3492091155983</v>
       </c>
     </row>
     <row r="38">
@@ -3505,16 +3505,16 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>201.0618092094378</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3550,10 +3550,10 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>82.27934083279976</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>130.0060448106423</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,13 +3565,13 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>241.0142888776591</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>228.2718088208877</v>
       </c>
     </row>
     <row r="39">
@@ -3584,13 +3584,13 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>105.1187218799658</v>
+        <v>99.45511102283791</v>
       </c>
       <c r="D39" t="n">
-        <v>46.26578256610149</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>64.7959557780172</v>
       </c>
       <c r="F39" t="n">
         <v>0</v>
@@ -3632,25 +3632,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>98.42978313835999</v>
       </c>
       <c r="T39" t="n">
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>158.3516049726249</v>
+        <v>152.687994115497</v>
       </c>
       <c r="V39" t="n">
-        <v>165.2108100410753</v>
+        <v>159.5471991839474</v>
       </c>
       <c r="W39" t="n">
-        <v>184.1052060525697</v>
+        <v>178.4415951954418</v>
       </c>
       <c r="X39" t="n">
-        <v>138.1832080951276</v>
+        <v>132.5195972379996</v>
       </c>
       <c r="Y39" t="n">
-        <v>138.0929186689544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3672,19 +3672,19 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>46.49822312553035</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>100.4012022501088</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>94.63739539908966</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.86069781890836</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>25.76940300832285</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3717,19 +3717,19 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>213.0656413910131</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>178.8842553583502</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>147.5173311027679</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.9948762437449</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>127.8876680883669</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3751,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>109.1049742688596</v>
       </c>
       <c r="G41" t="n">
-        <v>145.1949001911523</v>
+        <v>123.8703159274065</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>123.8703159274065</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>123.8703159274065</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>145.1949001911523</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>145.1949001911523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.13394410048206</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3875,19 +3875,19 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>145.1949001911523</v>
+        <v>123.8703159274065</v>
       </c>
       <c r="V42" t="n">
-        <v>145.1949001911523</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>145.1949001911523</v>
+        <v>82.97103016837752</v>
       </c>
       <c r="X42" t="n">
-        <v>127.8876680883669</v>
+        <v>123.8703159274065</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>123.8703159274065</v>
       </c>
     </row>
     <row r="43">
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>91.01639512440724</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>91.50488324572888</v>
+        <v>98.96448375650655</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>119.6943134833644</v>
+        <v>114.0307026262365</v>
       </c>
       <c r="S43" t="n">
-        <v>145.1949001911523</v>
+        <v>123.8703159274065</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -3957,10 +3957,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>19.98010381352303</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>123.8703159274065</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3985,19 +3985,19 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>109.1049742688596</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>123.8703159274065</v>
       </c>
       <c r="G44" t="n">
-        <v>126.8936236865379</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>126.8936236865379</v>
+        <v>123.8703159274065</v>
       </c>
       <c r="I44" t="n">
-        <v>126.8936236865379</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>123.8703159274065</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4045,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>111.7679037431026</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4058,7 +4058,7 @@
         <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>115.1094210945106</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
         <v>0</v>
@@ -4067,16 +4067,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>87.47013449957876</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>79.74443926940552</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>54.63636634269135</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>31.79755495760996</v>
+        <v>26.13394410048206</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,19 +4103,19 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>9.606765428887153</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>114.0840932100327</v>
+        <v>108.4204823529048</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>123.8703159274065</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>98.42086374287928</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>123.8703159274065</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4152,13 +4152,13 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>98.96448375650655</v>
       </c>
       <c r="I46" t="n">
-        <v>38.16882896534509</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>35.76010222286766</v>
+        <v>19.9801038135231</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>119.6943134833644</v>
+        <v>114.0307026262365</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4191,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>123.8703159274065</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>123.8703159274065</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>126.8936236865379</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>126.8936236865379</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>298.0273349934259</v>
+        <v>113.8081728592373</v>
       </c>
       <c r="C17" t="n">
-        <v>201.2400736939241</v>
+        <v>113.8081728592373</v>
       </c>
       <c r="D17" t="n">
-        <v>104.4528123944223</v>
+        <v>113.8081728592373</v>
       </c>
       <c r="E17" t="n">
-        <v>104.4528123944223</v>
+        <v>113.8081728592373</v>
       </c>
       <c r="F17" t="n">
-        <v>104.4528123944223</v>
+        <v>113.8081728592373</v>
       </c>
       <c r="G17" t="n">
-        <v>104.4528123944223</v>
+        <v>113.8081728592373</v>
       </c>
       <c r="H17" t="n">
-        <v>104.4528123944223</v>
+        <v>8.352119431478494</v>
       </c>
       <c r="I17" t="n">
-        <v>7.665551094920541</v>
+        <v>8.352119431478494</v>
       </c>
       <c r="J17" t="n">
-        <v>7.665551094920541</v>
+        <v>8.352119431478494</v>
       </c>
       <c r="K17" t="n">
-        <v>102.5267458945622</v>
+        <v>111.3671253424009</v>
       </c>
       <c r="L17" t="n">
-        <v>197.3879406942039</v>
+        <v>121.230960352781</v>
       </c>
       <c r="M17" t="n">
-        <v>292.2491354938456</v>
+        <v>121.230960352781</v>
       </c>
       <c r="N17" t="n">
-        <v>292.2491354938456</v>
+        <v>224.5884383173273</v>
       </c>
       <c r="O17" t="n">
-        <v>293.6174994539761</v>
+        <v>327.9459162818737</v>
       </c>
       <c r="P17" t="n">
-        <v>383.277554746027</v>
+        <v>417.6059715739246</v>
       </c>
       <c r="Q17" t="n">
-        <v>383.277554746027</v>
+        <v>417.6059715739246</v>
       </c>
       <c r="R17" t="n">
-        <v>298.0273349934259</v>
+        <v>417.6059715739246</v>
       </c>
       <c r="S17" t="n">
-        <v>298.0273349934259</v>
+        <v>417.6059715739246</v>
       </c>
       <c r="T17" t="n">
-        <v>298.0273349934259</v>
+        <v>312.1499181461659</v>
       </c>
       <c r="U17" t="n">
-        <v>298.0273349934259</v>
+        <v>206.6938647184071</v>
       </c>
       <c r="V17" t="n">
-        <v>298.0273349934259</v>
+        <v>113.8081728592373</v>
       </c>
       <c r="W17" t="n">
-        <v>298.0273349934259</v>
+        <v>113.8081728592373</v>
       </c>
       <c r="X17" t="n">
-        <v>298.0273349934259</v>
+        <v>113.8081728592373</v>
       </c>
       <c r="Y17" t="n">
-        <v>298.0273349934259</v>
+        <v>113.8081728592373</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>7.665551094920541</v>
+        <v>8.352119431478494</v>
       </c>
       <c r="C18" t="n">
-        <v>7.665551094920541</v>
+        <v>8.352119431478494</v>
       </c>
       <c r="D18" t="n">
-        <v>7.665551094920541</v>
+        <v>8.352119431478494</v>
       </c>
       <c r="E18" t="n">
-        <v>7.665551094920541</v>
+        <v>8.352119431478494</v>
       </c>
       <c r="F18" t="n">
-        <v>7.665551094920541</v>
+        <v>8.352119431478494</v>
       </c>
       <c r="G18" t="n">
-        <v>7.665551094920541</v>
+        <v>8.352119431478494</v>
       </c>
       <c r="H18" t="n">
-        <v>7.665551094920541</v>
+        <v>8.352119431478494</v>
       </c>
       <c r="I18" t="n">
-        <v>7.665551094920541</v>
+        <v>8.352119431478494</v>
       </c>
       <c r="J18" t="n">
-        <v>7.665551094920541</v>
+        <v>8.352119431478494</v>
       </c>
       <c r="K18" t="n">
-        <v>102.5267458945622</v>
+        <v>111.7095973960248</v>
       </c>
       <c r="L18" t="n">
-        <v>197.3879406942039</v>
+        <v>215.0670753605712</v>
       </c>
       <c r="M18" t="n">
-        <v>288.4163599463853</v>
+        <v>318.4245533251176</v>
       </c>
       <c r="N18" t="n">
-        <v>288.4163599463853</v>
+        <v>318.4245533251176</v>
       </c>
       <c r="O18" t="n">
-        <v>288.4163599463853</v>
+        <v>318.4245533251176</v>
       </c>
       <c r="P18" t="n">
-        <v>383.277554746027</v>
+        <v>348.2114130605954</v>
       </c>
       <c r="Q18" t="n">
-        <v>383.277554746027</v>
+        <v>417.6059715739246</v>
       </c>
       <c r="R18" t="n">
-        <v>383.277554746027</v>
+        <v>417.6059715739246</v>
       </c>
       <c r="S18" t="n">
-        <v>286.4902934465252</v>
+        <v>417.6059715739246</v>
       </c>
       <c r="T18" t="n">
-        <v>286.4902934465252</v>
+        <v>417.6059715739246</v>
       </c>
       <c r="U18" t="n">
-        <v>189.7030321470235</v>
+        <v>312.1499181461659</v>
       </c>
       <c r="V18" t="n">
-        <v>92.91577084752169</v>
+        <v>206.6938647184071</v>
       </c>
       <c r="W18" t="n">
-        <v>92.91577084752169</v>
+        <v>206.6938647184071</v>
       </c>
       <c r="X18" t="n">
-        <v>92.91577084752169</v>
+        <v>101.2378112906483</v>
       </c>
       <c r="Y18" t="n">
-        <v>7.665551094920541</v>
+        <v>8.352119431478494</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>250.3392801519082</v>
+        <v>101.2378112906483</v>
       </c>
       <c r="C19" t="n">
-        <v>250.3392801519082</v>
+        <v>101.2378112906483</v>
       </c>
       <c r="D19" t="n">
-        <v>153.5520188524064</v>
+        <v>101.2378112906483</v>
       </c>
       <c r="E19" t="n">
-        <v>56.76475755290461</v>
+        <v>101.2378112906483</v>
       </c>
       <c r="F19" t="n">
-        <v>56.76475755290461</v>
+        <v>101.2378112906483</v>
       </c>
       <c r="G19" t="n">
-        <v>56.76475755290461</v>
+        <v>101.2378112906483</v>
       </c>
       <c r="H19" t="n">
-        <v>56.76475755290461</v>
+        <v>8.352119431478494</v>
       </c>
       <c r="I19" t="n">
-        <v>56.76475755290461</v>
+        <v>8.352119431478494</v>
       </c>
       <c r="J19" t="n">
-        <v>7.665551094920541</v>
+        <v>8.352119431478494</v>
       </c>
       <c r="K19" t="n">
-        <v>29.92221025333242</v>
+        <v>36.21575333844697</v>
       </c>
       <c r="L19" t="n">
-        <v>101.5397913270813</v>
+        <v>113.4403091607525</v>
       </c>
       <c r="M19" t="n">
-        <v>185.0312855853393</v>
+        <v>202.5387781675671</v>
       </c>
       <c r="N19" t="n">
-        <v>273.0255923068115</v>
+        <v>296.1400596375959</v>
       </c>
       <c r="O19" t="n">
-        <v>341.6683250077466</v>
+        <v>370.3897670870876</v>
       </c>
       <c r="P19" t="n">
-        <v>383.277554746027</v>
+        <v>417.6059715739246</v>
       </c>
       <c r="Q19" t="n">
-        <v>347.1265414514099</v>
+        <v>417.6059715739246</v>
       </c>
       <c r="R19" t="n">
-        <v>250.3392801519082</v>
+        <v>417.6059715739246</v>
       </c>
       <c r="S19" t="n">
-        <v>250.3392801519082</v>
+        <v>417.6059715739246</v>
       </c>
       <c r="T19" t="n">
-        <v>250.3392801519082</v>
+        <v>312.1499181461659</v>
       </c>
       <c r="U19" t="n">
-        <v>250.3392801519082</v>
+        <v>312.1499181461659</v>
       </c>
       <c r="V19" t="n">
-        <v>250.3392801519082</v>
+        <v>206.6938647184071</v>
       </c>
       <c r="W19" t="n">
-        <v>250.3392801519082</v>
+        <v>101.2378112906483</v>
       </c>
       <c r="X19" t="n">
-        <v>250.3392801519082</v>
+        <v>101.2378112906483</v>
       </c>
       <c r="Y19" t="n">
-        <v>250.3392801519082</v>
+        <v>101.2378112906483</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>354.949850764142</v>
+        <v>8.35211943147849</v>
       </c>
       <c r="C20" t="n">
-        <v>354.949850764142</v>
+        <v>8.35211943147849</v>
       </c>
       <c r="D20" t="n">
-        <v>354.949850764142</v>
+        <v>8.35211943147849</v>
       </c>
       <c r="E20" t="n">
-        <v>239.6764515811912</v>
+        <v>8.35211943147849</v>
       </c>
       <c r="F20" t="n">
-        <v>124.4030523982404</v>
+        <v>8.35211943147849</v>
       </c>
       <c r="G20" t="n">
-        <v>9.129653215289698</v>
+        <v>8.35211943147849</v>
       </c>
       <c r="H20" t="n">
-        <v>9.129653215289698</v>
+        <v>8.35211943147849</v>
       </c>
       <c r="I20" t="n">
-        <v>9.129653215289698</v>
+        <v>8.35211943147849</v>
       </c>
       <c r="J20" t="n">
-        <v>9.129653215289698</v>
+        <v>8.35211943147849</v>
       </c>
       <c r="K20" t="n">
-        <v>9.129653215289698</v>
+        <v>8.35211943147849</v>
       </c>
       <c r="L20" t="n">
-        <v>122.1091117544997</v>
+        <v>111.7095973960248</v>
       </c>
       <c r="M20" t="n">
-        <v>235.0885702937097</v>
+        <v>215.0670753605711</v>
       </c>
       <c r="N20" t="n">
-        <v>343.5032022252749</v>
+        <v>224.5884383173272</v>
       </c>
       <c r="O20" t="n">
-        <v>456.4826607644849</v>
+        <v>327.9459162818736</v>
       </c>
       <c r="P20" t="n">
-        <v>456.4826607644849</v>
+        <v>417.6059715739245</v>
       </c>
       <c r="Q20" t="n">
-        <v>456.4826607644849</v>
+        <v>417.6059715739245</v>
       </c>
       <c r="R20" t="n">
-        <v>456.4826607644849</v>
+        <v>317.146838886295</v>
       </c>
       <c r="S20" t="n">
-        <v>456.4826607644849</v>
+        <v>211.6907854585363</v>
       </c>
       <c r="T20" t="n">
-        <v>456.4826607644849</v>
+        <v>106.2347320307775</v>
       </c>
       <c r="U20" t="n">
-        <v>456.4826607644849</v>
+        <v>106.2347320307775</v>
       </c>
       <c r="V20" t="n">
-        <v>456.4826607644849</v>
+        <v>106.2347320307775</v>
       </c>
       <c r="W20" t="n">
-        <v>456.4826607644849</v>
+        <v>8.35211943147849</v>
       </c>
       <c r="X20" t="n">
-        <v>354.949850764142</v>
+        <v>8.35211943147849</v>
       </c>
       <c r="Y20" t="n">
-        <v>354.949850764142</v>
+        <v>8.35211943147849</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>9.129653215289698</v>
+        <v>70.797440296226</v>
       </c>
       <c r="C21" t="n">
-        <v>9.129653215289698</v>
+        <v>70.797440296226</v>
       </c>
       <c r="D21" t="n">
-        <v>9.129653215289698</v>
+        <v>70.797440296226</v>
       </c>
       <c r="E21" t="n">
-        <v>9.129653215289698</v>
+        <v>70.797440296226</v>
       </c>
       <c r="F21" t="n">
-        <v>9.129653215289698</v>
+        <v>70.797440296226</v>
       </c>
       <c r="G21" t="n">
-        <v>9.129653215289698</v>
+        <v>70.797440296226</v>
       </c>
       <c r="H21" t="n">
-        <v>9.129653215289698</v>
+        <v>8.35211943147849</v>
       </c>
       <c r="I21" t="n">
-        <v>9.129653215289698</v>
+        <v>8.35211943147849</v>
       </c>
       <c r="J21" t="n">
-        <v>9.129653215289698</v>
+        <v>8.35211943147849</v>
       </c>
       <c r="K21" t="n">
-        <v>48.14972663352563</v>
+        <v>111.7095973960248</v>
       </c>
       <c r="L21" t="n">
-        <v>161.1291851727356</v>
+        <v>141.4964571315026</v>
       </c>
       <c r="M21" t="n">
-        <v>274.1086437119457</v>
+        <v>244.8539350960489</v>
       </c>
       <c r="N21" t="n">
-        <v>387.0881022511556</v>
+        <v>244.8539350960489</v>
       </c>
       <c r="O21" t="n">
-        <v>387.0881022511556</v>
+        <v>348.2114130605952</v>
       </c>
       <c r="P21" t="n">
-        <v>387.0881022511556</v>
+        <v>348.2114130605952</v>
       </c>
       <c r="Q21" t="n">
-        <v>456.4826607644849</v>
+        <v>417.6059715739245</v>
       </c>
       <c r="R21" t="n">
-        <v>456.4826607644849</v>
+        <v>367.3602568544834</v>
       </c>
       <c r="S21" t="n">
-        <v>350.4891867758836</v>
+        <v>261.9042034267247</v>
       </c>
       <c r="T21" t="n">
-        <v>350.4891867758836</v>
+        <v>176.2534937239847</v>
       </c>
       <c r="U21" t="n">
-        <v>350.4891867758836</v>
+        <v>176.2534937239847</v>
       </c>
       <c r="V21" t="n">
-        <v>350.4891867758836</v>
+        <v>176.2534937239847</v>
       </c>
       <c r="W21" t="n">
-        <v>235.2157875929329</v>
+        <v>176.2534937239847</v>
       </c>
       <c r="X21" t="n">
-        <v>235.2157875929329</v>
+        <v>176.2534937239847</v>
       </c>
       <c r="Y21" t="n">
-        <v>119.9423884099821</v>
+        <v>70.797440296226</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>225.9358623985834</v>
+        <v>405.9564091688569</v>
       </c>
       <c r="C22" t="n">
-        <v>121.4149093277512</v>
+        <v>300.5003557410981</v>
       </c>
       <c r="D22" t="n">
-        <v>121.4149093277512</v>
+        <v>201.3075310564356</v>
       </c>
       <c r="E22" t="n">
-        <v>121.4149093277512</v>
+        <v>104.3182522017157</v>
       </c>
       <c r="F22" t="n">
-        <v>121.4149093277512</v>
+        <v>8.35211943147849</v>
       </c>
       <c r="G22" t="n">
-        <v>9.129653215289698</v>
+        <v>8.35211943147849</v>
       </c>
       <c r="H22" t="n">
-        <v>9.129653215289698</v>
+        <v>8.35211943147849</v>
       </c>
       <c r="I22" t="n">
-        <v>9.129653215289698</v>
+        <v>8.35211943147849</v>
       </c>
       <c r="J22" t="n">
-        <v>9.129653215289698</v>
+        <v>8.35211943147849</v>
       </c>
       <c r="K22" t="n">
-        <v>43.34314635671637</v>
+        <v>36.21575333844703</v>
       </c>
       <c r="L22" t="n">
-        <v>126.91756141348</v>
+        <v>113.4403091607525</v>
       </c>
       <c r="M22" t="n">
-        <v>222.3658896547529</v>
+        <v>202.5387781675671</v>
       </c>
       <c r="N22" t="n">
-        <v>322.3170303592398</v>
+        <v>296.1400596375959</v>
       </c>
       <c r="O22" t="n">
-        <v>402.9165970431897</v>
+        <v>370.3897670870875</v>
       </c>
       <c r="P22" t="n">
-        <v>456.4826607644849</v>
+        <v>417.6059715739245</v>
       </c>
       <c r="Q22" t="n">
-        <v>456.4826607644849</v>
+        <v>405.9564091688569</v>
       </c>
       <c r="R22" t="n">
-        <v>341.2092615815342</v>
+        <v>405.9564091688569</v>
       </c>
       <c r="S22" t="n">
-        <v>341.2092615815342</v>
+        <v>405.9564091688569</v>
       </c>
       <c r="T22" t="n">
-        <v>341.2092615815342</v>
+        <v>405.9564091688569</v>
       </c>
       <c r="U22" t="n">
-        <v>341.2092615815342</v>
+        <v>405.9564091688569</v>
       </c>
       <c r="V22" t="n">
-        <v>341.2092615815342</v>
+        <v>405.9564091688569</v>
       </c>
       <c r="W22" t="n">
-        <v>341.2092615815342</v>
+        <v>405.9564091688569</v>
       </c>
       <c r="X22" t="n">
-        <v>341.2092615815342</v>
+        <v>405.9564091688569</v>
       </c>
       <c r="Y22" t="n">
-        <v>341.2092615815342</v>
+        <v>405.9564091688569</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="C23" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="D23" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="J23" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="K23" t="n">
-        <v>122.2961490211351</v>
+        <v>71.32622879404965</v>
       </c>
       <c r="L23" t="n">
-        <v>302.3720006057937</v>
+        <v>251.4020803787082</v>
       </c>
       <c r="M23" t="n">
-        <v>519.3476278686978</v>
+        <v>468.3777076416124</v>
       </c>
       <c r="N23" t="n">
-        <v>725.2021500759372</v>
+        <v>674.2322298488517</v>
       </c>
       <c r="O23" t="n">
-        <v>874.3971002185853</v>
+        <v>823.4271799914998</v>
       </c>
       <c r="P23" t="n">
-        <v>964.0571555106362</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="R23" t="n">
-        <v>902.973837238177</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="S23" t="n">
-        <v>782.1420829605706</v>
+        <v>792.2554810059444</v>
       </c>
       <c r="T23" t="n">
-        <v>647.092369109342</v>
+        <v>657.2057671547158</v>
       </c>
       <c r="U23" t="n">
-        <v>483.507500365482</v>
+        <v>657.2057671547158</v>
       </c>
       <c r="V23" t="n">
-        <v>262.7299197543128</v>
+        <v>657.2057671547158</v>
       </c>
       <c r="W23" t="n">
-        <v>19.28114311021272</v>
+        <v>426.6281824871525</v>
       </c>
       <c r="X23" t="n">
-        <v>19.28114311021272</v>
+        <v>196.0505978195891</v>
       </c>
       <c r="Y23" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
     </row>
     <row r="24">
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>251.2634657112919</v>
+        <v>102.4151448439545</v>
       </c>
       <c r="C24" t="n">
-        <v>251.2634657112919</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="D24" t="n">
-        <v>192.6286851928842</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="E24" t="n">
-        <v>123.6908593302722</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="F24" t="n">
-        <v>67.45593050000068</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="G24" t="n">
-        <v>42.35064955978989</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="H24" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="I24" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="J24" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="K24" t="n">
-        <v>144.6387031680501</v>
+        <v>143.6193047635084</v>
       </c>
       <c r="L24" t="n">
-        <v>374.6018090363993</v>
+        <v>369.6083954961872</v>
       </c>
       <c r="M24" t="n">
-        <v>542.809531908403</v>
+        <v>595.597486228866</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>730.4437576701998</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>730.4437576701998</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="Q24" t="n">
-        <v>964.0571555106362</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="R24" t="n">
-        <v>964.0571555106362</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="S24" t="n">
-        <v>880.9394401041486</v>
+        <v>829.9695198770631</v>
       </c>
       <c r="T24" t="n">
-        <v>769.0524746057582</v>
+        <v>829.9695198770631</v>
       </c>
       <c r="U24" t="n">
-        <v>631.1284854849908</v>
+        <v>724.1336000802362</v>
       </c>
       <c r="V24" t="n">
-        <v>486.2760063960916</v>
+        <v>579.2811209913369</v>
       </c>
       <c r="W24" t="n">
-        <v>486.2760063960916</v>
+        <v>415.3433934059788</v>
       </c>
       <c r="X24" t="n">
-        <v>368.7241353334023</v>
+        <v>297.7915223432894</v>
       </c>
       <c r="Y24" t="n">
-        <v>251.2634657112919</v>
+        <v>180.330852721179</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>276.6927379645248</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="C25" t="n">
-        <v>276.6927379645248</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="D25" t="n">
-        <v>216.8757276950326</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="E25" t="n">
-        <v>159.262263255483</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="F25" t="n">
-        <v>102.6719449004162</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="G25" t="n">
-        <v>23.28371610542252</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="H25" t="n">
-        <v>23.28371610542252</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="I25" t="n">
-        <v>23.28371610542252</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="J25" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="K25" t="n">
-        <v>85.73701272548962</v>
+        <v>84.71761432094792</v>
       </c>
       <c r="L25" t="n">
-        <v>201.5538042561035</v>
+        <v>200.5344058515618</v>
       </c>
       <c r="M25" t="n">
-        <v>329.2445089712266</v>
+        <v>328.2251105666849</v>
       </c>
       <c r="N25" t="n">
-        <v>461.4380261495638</v>
+        <v>460.4186277450221</v>
       </c>
       <c r="O25" t="n">
-        <v>574.279969307364</v>
+        <v>573.2605709028223</v>
       </c>
       <c r="P25" t="n">
-        <v>660.0884095025095</v>
+        <v>659.0690110979679</v>
       </c>
       <c r="Q25" t="n">
-        <v>663.2906532062331</v>
+        <v>662.2712548016914</v>
       </c>
       <c r="R25" t="n">
-        <v>663.2906532062331</v>
+        <v>662.2712548016914</v>
       </c>
       <c r="S25" t="n">
-        <v>663.2906532062331</v>
+        <v>610.5968728325731</v>
       </c>
       <c r="T25" t="n">
-        <v>523.3422122194993</v>
+        <v>610.5968728325731</v>
       </c>
       <c r="U25" t="n">
-        <v>523.3422122194993</v>
+        <v>411.6853612112844</v>
       </c>
       <c r="V25" t="n">
-        <v>523.3422122194993</v>
+        <v>247.300502148241</v>
       </c>
       <c r="W25" t="n">
-        <v>324.2246713253821</v>
+        <v>247.300502148241</v>
       </c>
       <c r="X25" t="n">
-        <v>324.2246713253821</v>
+        <v>109.6105803930672</v>
       </c>
       <c r="Y25" t="n">
-        <v>324.2246713253821</v>
+        <v>109.6105803930672</v>
       </c>
     </row>
     <row r="26">
@@ -6202,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>233.7108255783361</v>
+        <v>547.4599367647588</v>
       </c>
       <c r="C26" t="n">
-        <v>233.7108255783361</v>
+        <v>547.4599367647588</v>
       </c>
       <c r="D26" t="n">
-        <v>233.7108255783361</v>
+        <v>547.4599367647588</v>
       </c>
       <c r="E26" t="n">
-        <v>233.7108255783361</v>
+        <v>479.4169140407977</v>
       </c>
       <c r="F26" t="n">
-        <v>233.7108255783361</v>
+        <v>248.8393293732344</v>
       </c>
       <c r="G26" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="H26" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="I26" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="J26" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="K26" t="n">
-        <v>122.2961490211351</v>
+        <v>121.2767506165934</v>
       </c>
       <c r="L26" t="n">
-        <v>302.3720006057937</v>
+        <v>301.352602201252</v>
       </c>
       <c r="M26" t="n">
-        <v>519.3476278686978</v>
+        <v>518.3282294641562</v>
       </c>
       <c r="N26" t="n">
-        <v>725.2021500759372</v>
+        <v>724.1827516713954</v>
       </c>
       <c r="O26" t="n">
-        <v>874.3971002185853</v>
+        <v>873.3777018140435</v>
       </c>
       <c r="P26" t="n">
-        <v>964.0571555106362</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>778.0375214323221</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>778.0375214323221</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>778.0375214323221</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>778.0375214323221</v>
       </c>
       <c r="X26" t="n">
-        <v>720.6083788665362</v>
+        <v>778.0375214323221</v>
       </c>
       <c r="Y26" t="n">
-        <v>477.1596022224361</v>
+        <v>778.0375214323221</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>226.1581847710812</v>
+        <v>102.4151448439545</v>
       </c>
       <c r="C27" t="n">
-        <v>226.1581847710812</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="D27" t="n">
-        <v>167.5234042526734</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="E27" t="n">
-        <v>98.58557839006141</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="F27" t="n">
-        <v>42.35064955978989</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="G27" t="n">
-        <v>42.35064955978989</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="J27" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="L27" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="M27" t="n">
-        <v>234.810827406191</v>
+        <v>209.0710176915129</v>
       </c>
       <c r="N27" t="n">
-        <v>473.4149733950735</v>
+        <v>435.0601084241918</v>
       </c>
       <c r="O27" t="n">
-        <v>712.019119383956</v>
+        <v>661.0491991568706</v>
       </c>
       <c r="P27" t="n">
-        <v>894.6625969973069</v>
+        <v>843.6926767702214</v>
       </c>
       <c r="Q27" t="n">
-        <v>964.0571555106362</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="R27" t="n">
-        <v>953.1872552063654</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="S27" t="n">
-        <v>870.0695397998778</v>
+        <v>862.0575892010036</v>
       </c>
       <c r="T27" t="n">
-        <v>758.1825743014874</v>
+        <v>862.0575892010036</v>
       </c>
       <c r="U27" t="n">
-        <v>620.25858518072</v>
+        <v>724.1336000802362</v>
       </c>
       <c r="V27" t="n">
-        <v>475.4061060918208</v>
+        <v>579.2811209913369</v>
       </c>
       <c r="W27" t="n">
-        <v>343.6188543931916</v>
+        <v>415.3433934059788</v>
       </c>
       <c r="X27" t="n">
-        <v>343.6188543931916</v>
+        <v>297.7915223432894</v>
       </c>
       <c r="Y27" t="n">
-        <v>226.1581847710812</v>
+        <v>180.330852721179</v>
       </c>
     </row>
     <row r="28">
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>197.3045091695312</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="C28" t="n">
-        <v>197.3045091695312</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="D28" t="n">
-        <v>137.487498900039</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="E28" t="n">
-        <v>79.87403446048936</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="F28" t="n">
-        <v>23.28371610542252</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="G28" t="n">
-        <v>23.28371610542252</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="H28" t="n">
-        <v>23.28371610542252</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="I28" t="n">
-        <v>23.28371610542252</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="J28" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="K28" t="n">
-        <v>85.73701272548962</v>
+        <v>84.71761432094792</v>
       </c>
       <c r="L28" t="n">
-        <v>201.5538042561035</v>
+        <v>200.5344058515618</v>
       </c>
       <c r="M28" t="n">
-        <v>329.2445089712266</v>
+        <v>328.2251105666849</v>
       </c>
       <c r="N28" t="n">
-        <v>461.4380261495638</v>
+        <v>460.4186277450221</v>
       </c>
       <c r="O28" t="n">
-        <v>574.279969307364</v>
+        <v>573.2605709028223</v>
       </c>
       <c r="P28" t="n">
-        <v>660.0884095025095</v>
+        <v>659.0690110979679</v>
       </c>
       <c r="Q28" t="n">
-        <v>663.2906532062331</v>
+        <v>662.2712548016914</v>
       </c>
       <c r="R28" t="n">
-        <v>663.2906532062331</v>
+        <v>662.2712548016914</v>
       </c>
       <c r="S28" t="n">
-        <v>527.3108903925389</v>
+        <v>662.2712548016914</v>
       </c>
       <c r="T28" t="n">
-        <v>387.3624494058051</v>
+        <v>662.2712548016914</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6533448569273</v>
+        <v>463.3597431804027</v>
       </c>
       <c r="V28" t="n">
-        <v>288.6533448569273</v>
+        <v>463.3597431804027</v>
       </c>
       <c r="W28" t="n">
-        <v>288.6533448569273</v>
+        <v>264.2422022862855</v>
       </c>
       <c r="X28" t="n">
-        <v>288.6533448569273</v>
+        <v>148.7546947063576</v>
       </c>
       <c r="Y28" t="n">
-        <v>288.6533448569273</v>
+        <v>18.26174470567102</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>316.8823520971955</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>86.30476742963216</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>86.30476742963216</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>86.30476742963216</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>86.30476742963216</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>86.30476742963216</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>86.30476742963216</v>
       </c>
       <c r="I29" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="J29" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="K29" t="n">
-        <v>122.2961490211351</v>
+        <v>121.2767506165934</v>
       </c>
       <c r="L29" t="n">
-        <v>302.3720006057937</v>
+        <v>301.352602201252</v>
       </c>
       <c r="M29" t="n">
-        <v>519.3476278686978</v>
+        <v>518.3282294641562</v>
       </c>
       <c r="N29" t="n">
-        <v>725.2021500759372</v>
+        <v>724.1827516713954</v>
       </c>
       <c r="O29" t="n">
-        <v>874.3971002185853</v>
+        <v>873.3777018140435</v>
       </c>
       <c r="P29" t="n">
-        <v>964.0571555106362</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="S29" t="n">
-        <v>843.2254012330299</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="T29" t="n">
-        <v>708.1756873818013</v>
+        <v>778.0375214323221</v>
       </c>
       <c r="U29" t="n">
-        <v>544.5908186379412</v>
+        <v>778.0375214323221</v>
       </c>
       <c r="V29" t="n">
-        <v>303.8275604372141</v>
+        <v>547.4599367647588</v>
       </c>
       <c r="W29" t="n">
-        <v>60.378783793114</v>
+        <v>316.8823520971955</v>
       </c>
       <c r="X29" t="n">
-        <v>19.28114311021272</v>
+        <v>316.8823520971955</v>
       </c>
       <c r="Y29" t="n">
-        <v>19.28114311021272</v>
+        <v>316.8823520971955</v>
       </c>
     </row>
     <row r="30">
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>274.3648230281869</v>
+        <v>103.292589110523</v>
       </c>
       <c r="C30" t="n">
-        <v>190.2114228899034</v>
+        <v>19.13918897223947</v>
       </c>
       <c r="D30" t="n">
-        <v>147.0167746646024</v>
+        <v>19.13918897223947</v>
       </c>
       <c r="E30" t="n">
-        <v>147.0167746646024</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="F30" t="n">
-        <v>90.78184583433085</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="G30" t="n">
-        <v>42.35064955978989</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="H30" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="I30" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="J30" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="K30" t="n">
-        <v>144.6387031680501</v>
+        <v>143.6193047635084</v>
       </c>
       <c r="L30" t="n">
-        <v>374.6018090363993</v>
+        <v>369.6083954961872</v>
       </c>
       <c r="M30" t="n">
-        <v>613.2059550252818</v>
+        <v>595.597486228866</v>
       </c>
       <c r="N30" t="n">
-        <v>851.8101010141643</v>
+        <v>595.597486228866</v>
       </c>
       <c r="O30" t="n">
-        <v>851.8101010141643</v>
+        <v>730.4437576701998</v>
       </c>
       <c r="P30" t="n">
-        <v>964.0571555106362</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="Q30" t="n">
-        <v>964.0571555106362</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="R30" t="n">
-        <v>953.1872552063654</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="S30" t="n">
-        <v>870.0695397998778</v>
+        <v>829.9695198770631</v>
       </c>
       <c r="T30" t="n">
-        <v>870.0695397998778</v>
+        <v>718.0825543786727</v>
       </c>
       <c r="U30" t="n">
-        <v>732.1455506791104</v>
+        <v>580.1585652579054</v>
       </c>
       <c r="V30" t="n">
-        <v>587.2930715902112</v>
+        <v>580.1585652579054</v>
       </c>
       <c r="W30" t="n">
-        <v>587.2930715902112</v>
+        <v>416.2208376725472</v>
       </c>
       <c r="X30" t="n">
-        <v>469.7412005275219</v>
+        <v>298.6689666098579</v>
       </c>
       <c r="Y30" t="n">
-        <v>352.2805309054115</v>
+        <v>181.2082969877475</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>75.87146146527957</v>
+        <v>78.07875497516322</v>
       </c>
       <c r="C31" t="n">
-        <v>75.87146146527957</v>
+        <v>78.07875497516322</v>
       </c>
       <c r="D31" t="n">
-        <v>75.87146146527957</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="E31" t="n">
-        <v>75.87146146527957</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="F31" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="G31" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="H31" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="I31" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="J31" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="K31" t="n">
-        <v>85.73701272548962</v>
+        <v>84.71761432094792</v>
       </c>
       <c r="L31" t="n">
-        <v>201.5538042561035</v>
+        <v>200.5344058515618</v>
       </c>
       <c r="M31" t="n">
-        <v>329.2445089712266</v>
+        <v>328.2251105666849</v>
       </c>
       <c r="N31" t="n">
-        <v>461.4380261495638</v>
+        <v>460.4186277450221</v>
       </c>
       <c r="O31" t="n">
-        <v>574.279969307364</v>
+        <v>573.2605709028223</v>
       </c>
       <c r="P31" t="n">
-        <v>660.0884095025095</v>
+        <v>659.0690110979679</v>
       </c>
       <c r="Q31" t="n">
-        <v>663.2906532062331</v>
+        <v>662.2712548016914</v>
       </c>
       <c r="R31" t="n">
-        <v>663.2906532062331</v>
+        <v>662.2712548016914</v>
       </c>
       <c r="S31" t="n">
-        <v>663.2906532062331</v>
+        <v>526.2914919879972</v>
       </c>
       <c r="T31" t="n">
-        <v>663.2906532062331</v>
+        <v>386.3430510012635</v>
       </c>
       <c r="U31" t="n">
-        <v>464.3791415849444</v>
+        <v>386.3430510012635</v>
       </c>
       <c r="V31" t="n">
-        <v>299.994282521901</v>
+        <v>386.3430510012635</v>
       </c>
       <c r="W31" t="n">
-        <v>299.994282521901</v>
+        <v>386.3430510012635</v>
       </c>
       <c r="X31" t="n">
-        <v>162.3043607667271</v>
+        <v>248.6531292460896</v>
       </c>
       <c r="Y31" t="n">
-        <v>162.3043607667271</v>
+        <v>118.160179245403</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>248.815848038769</v>
+        <v>247.7964496342273</v>
       </c>
       <c r="C32" t="n">
-        <v>248.815848038769</v>
+        <v>247.7964496342273</v>
       </c>
       <c r="D32" t="n">
-        <v>248.815848038769</v>
+        <v>247.7964496342273</v>
       </c>
       <c r="E32" t="n">
-        <v>248.815848038769</v>
+        <v>247.7964496342273</v>
       </c>
       <c r="F32" t="n">
-        <v>248.815848038769</v>
+        <v>247.7964496342273</v>
       </c>
       <c r="G32" t="n">
-        <v>248.815848038769</v>
+        <v>247.7964496342273</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="I32" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="J32" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="K32" t="n">
-        <v>122.2961490211351</v>
+        <v>71.32622879404965</v>
       </c>
       <c r="L32" t="n">
-        <v>302.3720006057937</v>
+        <v>251.4020803787082</v>
       </c>
       <c r="M32" t="n">
-        <v>519.3476278686978</v>
+        <v>468.3777076416124</v>
       </c>
       <c r="N32" t="n">
-        <v>725.2021500759372</v>
+        <v>674.2322298488517</v>
       </c>
       <c r="O32" t="n">
-        <v>874.3971002185853</v>
+        <v>823.4271799914998</v>
       </c>
       <c r="P32" t="n">
-        <v>964.0571555106362</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="R32" t="n">
-        <v>926.0433436877541</v>
+        <v>875.0734234606687</v>
       </c>
       <c r="S32" t="n">
-        <v>828.2810958597249</v>
+        <v>777.3111756326394</v>
       </c>
       <c r="T32" t="n">
-        <v>716.3008884580735</v>
+        <v>665.330968230988</v>
       </c>
       <c r="U32" t="n">
-        <v>709.958376434019</v>
+        <v>524.8156059367051</v>
       </c>
       <c r="V32" t="n">
-        <v>492.2646246828691</v>
+        <v>478.3740343017906</v>
       </c>
       <c r="W32" t="n">
-        <v>492.2646246828691</v>
+        <v>247.7964496342273</v>
       </c>
       <c r="X32" t="n">
-        <v>492.2646246828691</v>
+        <v>247.7964496342273</v>
       </c>
       <c r="Y32" t="n">
-        <v>248.815848038769</v>
+        <v>247.7964496342273</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>220.3257424864427</v>
+        <v>142.9961616182411</v>
       </c>
       <c r="C33" t="n">
-        <v>159.2418487977363</v>
+        <v>81.91226792953478</v>
       </c>
       <c r="D33" t="n">
-        <v>123.6765747289057</v>
+        <v>46.34699386070418</v>
       </c>
       <c r="E33" t="n">
-        <v>77.80825531587089</v>
+        <v>43.62343453063482</v>
       </c>
       <c r="F33" t="n">
-        <v>44.64283293517654</v>
+        <v>43.62343453063482</v>
       </c>
       <c r="G33" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="H33" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="I33" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="J33" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="K33" t="n">
-        <v>19.28114311021272</v>
+        <v>143.6193047635084</v>
       </c>
       <c r="L33" t="n">
-        <v>65.60123993063803</v>
+        <v>369.6083954961872</v>
       </c>
       <c r="M33" t="n">
-        <v>304.2053859195205</v>
+        <v>595.597486228866</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>821.5865769615449</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="Q33" t="n">
-        <v>964.0571555106362</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="R33" t="n">
-        <v>964.0571555106362</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="S33" t="n">
-        <v>930.368607194842</v>
+        <v>853.0390263266403</v>
       </c>
       <c r="T33" t="n">
-        <v>841.5511481460287</v>
+        <v>764.221567277827</v>
       </c>
       <c r="U33" t="n">
-        <v>726.6966654748385</v>
+        <v>649.3670846066368</v>
       </c>
       <c r="V33" t="n">
-        <v>604.9136928355165</v>
+        <v>527.5841119673148</v>
       </c>
       <c r="W33" t="n">
-        <v>464.0454716997355</v>
+        <v>386.7158908315338</v>
       </c>
       <c r="X33" t="n">
-        <v>369.5631070866233</v>
+        <v>292.2335262184217</v>
       </c>
       <c r="Y33" t="n">
-        <v>275.17194391409</v>
+        <v>197.8423630458885</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="J34" t="n">
-        <v>37.96864458883817</v>
+        <v>36.94924618429647</v>
       </c>
       <c r="K34" t="n">
-        <v>127.0349374753456</v>
+        <v>126.0155390708039</v>
       </c>
       <c r="L34" t="n">
-        <v>265.4621522771901</v>
+        <v>264.4427538726484</v>
       </c>
       <c r="M34" t="n">
-        <v>415.7632802635438</v>
+        <v>414.7438818590021</v>
       </c>
       <c r="N34" t="n">
-        <v>570.5672207131116</v>
+        <v>569.5478223085699</v>
       </c>
       <c r="O34" t="n">
-        <v>706.0195871421424</v>
+        <v>705.0001887376006</v>
       </c>
       <c r="P34" t="n">
-        <v>814.4384506085185</v>
+        <v>813.4190522039767</v>
       </c>
       <c r="Q34" t="n">
-        <v>840.2511175834725</v>
+        <v>839.2317191789307</v>
       </c>
       <c r="R34" t="n">
-        <v>774.5360194615805</v>
+        <v>839.2317191789307</v>
       </c>
       <c r="S34" t="n">
-        <v>661.6257630974635</v>
+        <v>742.966486778142</v>
       </c>
       <c r="T34" t="n">
-        <v>544.7468285603069</v>
+        <v>626.0875522409854</v>
       </c>
       <c r="U34" t="n">
-        <v>368.9048233885953</v>
+        <v>450.2455470692738</v>
       </c>
       <c r="V34" t="n">
-        <v>227.5894707751291</v>
+        <v>308.9301944558076</v>
       </c>
       <c r="W34" t="n">
-        <v>51.54143633058916</v>
+        <v>132.8821600112677</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>262.7299197543128</v>
+        <v>682.5096506159874</v>
       </c>
       <c r="C35" t="n">
-        <v>19.28114311021272</v>
+        <v>682.5096506159874</v>
       </c>
       <c r="D35" t="n">
-        <v>19.28114311021272</v>
+        <v>682.5096506159874</v>
       </c>
       <c r="E35" t="n">
-        <v>19.28114311021272</v>
+        <v>451.9320659484241</v>
       </c>
       <c r="F35" t="n">
-        <v>19.28114311021272</v>
+        <v>221.3544812808608</v>
       </c>
       <c r="G35" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="H35" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="I35" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="J35" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="K35" t="n">
-        <v>122.2961490211351</v>
+        <v>121.2767506165934</v>
       </c>
       <c r="L35" t="n">
-        <v>302.3720006057937</v>
+        <v>301.352602201252</v>
       </c>
       <c r="M35" t="n">
-        <v>519.3476278686978</v>
+        <v>518.3282294641562</v>
       </c>
       <c r="N35" t="n">
-        <v>725.2021500759372</v>
+        <v>724.1827516713954</v>
       </c>
       <c r="O35" t="n">
-        <v>874.3971002185853</v>
+        <v>873.3777018140435</v>
       </c>
       <c r="P35" t="n">
-        <v>964.0571555106362</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="Q35" t="n">
-        <v>964.0571555106362</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="R35" t="n">
-        <v>913.8437375424478</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="S35" t="n">
-        <v>913.8437375424478</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="T35" t="n">
-        <v>913.8437375424478</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="U35" t="n">
-        <v>913.8437375424478</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="V35" t="n">
-        <v>913.8437375424478</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="W35" t="n">
-        <v>913.8437375424478</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="X35" t="n">
-        <v>749.627473042513</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="Y35" t="n">
-        <v>506.1786963984129</v>
+        <v>682.5096506159874</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>223.2558476546334</v>
+        <v>142.9961616182411</v>
       </c>
       <c r="C36" t="n">
-        <v>149.9723478206207</v>
+        <v>81.91226792953478</v>
       </c>
       <c r="D36" t="n">
-        <v>102.2074676064837</v>
+        <v>46.34699386070418</v>
       </c>
       <c r="E36" t="n">
-        <v>102.2074676064837</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="F36" t="n">
-        <v>56.84243908048293</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="J36" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>143.6193047635084</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>165.7254045721849</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>391.7144953048637</v>
       </c>
       <c r="N36" t="n">
-        <v>851.8101010141643</v>
+        <v>617.7035860375426</v>
       </c>
       <c r="O36" t="n">
-        <v>964.0571555106362</v>
+        <v>843.6926767702214</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>843.6926767702214</v>
       </c>
       <c r="Q36" t="n">
-        <v>964.0571555106362</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="S36" t="n">
-        <v>891.8093404084193</v>
+        <v>853.0390263266403</v>
       </c>
       <c r="T36" t="n">
-        <v>790.7922752142996</v>
+        <v>764.221567277827</v>
       </c>
       <c r="U36" t="n">
-        <v>790.6248013695611</v>
+        <v>649.3670846066368</v>
       </c>
       <c r="V36" t="n">
-        <v>656.6422225849327</v>
+        <v>527.5841119673148</v>
       </c>
       <c r="W36" t="n">
-        <v>503.5743953038453</v>
+        <v>386.7158908315338</v>
       </c>
       <c r="X36" t="n">
-        <v>396.8924245454268</v>
+        <v>292.2335262184217</v>
       </c>
       <c r="Y36" t="n">
-        <v>290.3016552275872</v>
+        <v>197.8423630458885</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>19.28114311021272</v>
+        <v>170.3235541602846</v>
       </c>
       <c r="C37" t="n">
-        <v>19.28114311021272</v>
+        <v>149.1574899010456</v>
       </c>
       <c r="D37" t="n">
-        <v>19.28114311021272</v>
+        <v>112.4099860811306</v>
       </c>
       <c r="E37" t="n">
-        <v>19.28114311021272</v>
+        <v>112.4099860811306</v>
       </c>
       <c r="F37" t="n">
-        <v>19.28114311021272</v>
+        <v>112.4099860811306</v>
       </c>
       <c r="G37" t="n">
-        <v>19.28114311021272</v>
+        <v>112.4099860811306</v>
       </c>
       <c r="H37" t="n">
-        <v>19.28114311021272</v>
+        <v>61.91329085795569</v>
       </c>
       <c r="I37" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="J37" t="n">
-        <v>26.01181060582338</v>
+        <v>36.94924618429647</v>
       </c>
       <c r="K37" t="n">
-        <v>103.1212695093161</v>
+        <v>126.0155390708039</v>
       </c>
       <c r="L37" t="n">
-        <v>229.5916503281457</v>
+        <v>264.4427538726484</v>
       </c>
       <c r="M37" t="n">
-        <v>367.9359443314846</v>
+        <v>414.7438818590021</v>
       </c>
       <c r="N37" t="n">
-        <v>510.7830507980376</v>
+        <v>569.5478223085699</v>
       </c>
       <c r="O37" t="n">
-        <v>634.2785832440536</v>
+        <v>705.0001887376006</v>
       </c>
       <c r="P37" t="n">
-        <v>730.7406127274148</v>
+        <v>813.4190522039767</v>
       </c>
       <c r="Q37" t="n">
-        <v>744.5964457193541</v>
+        <v>839.2317191789307</v>
       </c>
       <c r="R37" t="n">
-        <v>666.6817414521557</v>
+        <v>839.2317191789307</v>
       </c>
       <c r="S37" t="n">
-        <v>666.6817414521557</v>
+        <v>839.2317191789307</v>
       </c>
       <c r="T37" t="n">
-        <v>537.6032007696928</v>
+        <v>839.2317191789307</v>
       </c>
       <c r="U37" t="n">
-        <v>349.5615894526749</v>
+        <v>663.3897140072191</v>
       </c>
       <c r="V37" t="n">
-        <v>196.0466306939023</v>
+        <v>522.074361393753</v>
       </c>
       <c r="W37" t="n">
-        <v>146.1011645611158</v>
+        <v>346.026326949213</v>
       </c>
       <c r="X37" t="n">
-        <v>19.28114311021272</v>
+        <v>346.026326949213</v>
       </c>
       <c r="Y37" t="n">
-        <v>19.28114311021272</v>
+        <v>238.6028833981036</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>506.1786963984129</v>
+        <v>451.9320659484241</v>
       </c>
       <c r="C38" t="n">
-        <v>262.7299197543128</v>
+        <v>451.9320659484241</v>
       </c>
       <c r="D38" t="n">
-        <v>262.7299197543128</v>
+        <v>451.9320659484241</v>
       </c>
       <c r="E38" t="n">
-        <v>19.28114311021272</v>
+        <v>221.3544812808608</v>
       </c>
       <c r="F38" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="G38" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="H38" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="I38" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="J38" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="K38" t="n">
-        <v>122.2961490211351</v>
+        <v>121.2767506165934</v>
       </c>
       <c r="L38" t="n">
-        <v>302.3720006057937</v>
+        <v>301.352602201252</v>
       </c>
       <c r="M38" t="n">
-        <v>519.3476278686978</v>
+        <v>518.3282294641562</v>
       </c>
       <c r="N38" t="n">
-        <v>725.2021500759372</v>
+        <v>724.1827516713954</v>
       </c>
       <c r="O38" t="n">
-        <v>874.3971002185853</v>
+        <v>873.3777018140435</v>
       </c>
       <c r="P38" t="n">
-        <v>964.0571555106362</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="Q38" t="n">
-        <v>964.0571555106362</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="R38" t="n">
-        <v>880.9467102249799</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="S38" t="n">
-        <v>749.627473042513</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="T38" t="n">
-        <v>749.627473042513</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="U38" t="n">
-        <v>749.627473042513</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="V38" t="n">
-        <v>749.627473042513</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="W38" t="n">
-        <v>506.1786963984129</v>
+        <v>682.5096506159874</v>
       </c>
       <c r="X38" t="n">
-        <v>506.1786963984129</v>
+        <v>682.5096506159874</v>
       </c>
       <c r="Y38" t="n">
-        <v>506.1786963984129</v>
+        <v>451.9320659484241</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>172.1947839648262</v>
+        <v>184.1719131913833</v>
       </c>
       <c r="C39" t="n">
-        <v>66.01425681334554</v>
+        <v>83.71220508750658</v>
       </c>
       <c r="D39" t="n">
-        <v>19.28114311021272</v>
+        <v>83.71220508750658</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="J39" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="K39" t="n">
-        <v>144.6387031680501</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>244.2508354383498</v>
       </c>
       <c r="M39" t="n">
-        <v>613.2059550252818</v>
+        <v>435.0601084241918</v>
       </c>
       <c r="N39" t="n">
-        <v>851.8101010141643</v>
+        <v>435.0601084241918</v>
       </c>
       <c r="O39" t="n">
-        <v>964.0571555106362</v>
+        <v>661.0491991568706</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>843.6926767702214</v>
       </c>
       <c r="Q39" t="n">
-        <v>964.0571555106362</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>913.0872352835507</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>813.6632119114699</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>813.6632119114699</v>
       </c>
       <c r="U39" t="n">
-        <v>804.1060393766717</v>
+        <v>659.4329148251094</v>
       </c>
       <c r="V39" t="n">
-        <v>637.2264332745754</v>
+        <v>498.274127770617</v>
       </c>
       <c r="W39" t="n">
-        <v>451.2615786760201</v>
+        <v>318.0300922196657</v>
       </c>
       <c r="X39" t="n">
-        <v>311.6825806001337</v>
+        <v>184.1719131913833</v>
       </c>
       <c r="Y39" t="n">
-        <v>172.1947839648262</v>
+        <v>184.1719131913833</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>378.0356093748188</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="C40" t="n">
-        <v>378.0356093748188</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="D40" t="n">
-        <v>378.0356093748188</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="E40" t="n">
-        <v>378.0356093748188</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="F40" t="n">
-        <v>331.0677072278185</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="G40" t="n">
-        <v>229.6523514196277</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="H40" t="n">
-        <v>134.0590227336786</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="I40" t="n">
-        <v>45.31084311861964</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="K40" t="n">
-        <v>64.14822553985512</v>
+        <v>68.73580188387004</v>
       </c>
       <c r="L40" t="n">
-        <v>158.3762298848345</v>
+        <v>168.5707809774061</v>
       </c>
       <c r="M40" t="n">
-        <v>264.4781474143231</v>
+        <v>280.2796732554513</v>
       </c>
       <c r="N40" t="n">
-        <v>375.0828774070259</v>
+        <v>396.4913779967106</v>
       </c>
       <c r="O40" t="n">
-        <v>466.3360333791916</v>
+        <v>493.351508717433</v>
       </c>
       <c r="P40" t="n">
-        <v>530.5556863887025</v>
+        <v>563.1781364755005</v>
       </c>
       <c r="Q40" t="n">
-        <v>530.5556863887025</v>
+        <v>563.1781364755005</v>
       </c>
       <c r="R40" t="n">
-        <v>530.5556863887025</v>
+        <v>563.1781364755005</v>
       </c>
       <c r="S40" t="n">
-        <v>530.5556863887025</v>
+        <v>563.1781364755005</v>
       </c>
       <c r="T40" t="n">
-        <v>530.5556863887025</v>
+        <v>563.1781364755005</v>
       </c>
       <c r="U40" t="n">
-        <v>530.5556863887025</v>
+        <v>347.9603168886186</v>
       </c>
       <c r="V40" t="n">
-        <v>530.5556863887025</v>
+        <v>167.2691498599821</v>
       </c>
       <c r="W40" t="n">
-        <v>530.5556863887025</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="X40" t="n">
-        <v>530.5556863887025</v>
+        <v>18.26174470567102</v>
       </c>
       <c r="Y40" t="n">
-        <v>378.0356093748188</v>
+        <v>18.26174470567102</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>158.2771073598905</v>
+        <v>495.481263709626</v>
       </c>
       <c r="C41" t="n">
-        <v>158.2771073598905</v>
+        <v>495.481263709626</v>
       </c>
       <c r="D41" t="n">
-        <v>158.2771073598905</v>
+        <v>495.481263709626</v>
       </c>
       <c r="E41" t="n">
-        <v>158.2771073598905</v>
+        <v>495.481263709626</v>
       </c>
       <c r="F41" t="n">
-        <v>158.2771073598905</v>
+        <v>385.2742189936062</v>
       </c>
       <c r="G41" t="n">
-        <v>11.61559201529218</v>
+        <v>260.1526877538016</v>
       </c>
       <c r="H41" t="n">
-        <v>11.61559201529218</v>
+        <v>135.0311565139971</v>
       </c>
       <c r="I41" t="n">
-        <v>11.61559201529218</v>
+        <v>9.909625274192519</v>
       </c>
       <c r="J41" t="n">
-        <v>11.61559201529218</v>
+        <v>9.909625274192519</v>
       </c>
       <c r="K41" t="n">
-        <v>11.61559201529218</v>
+        <v>112.9246311851149</v>
       </c>
       <c r="L41" t="n">
-        <v>59.89069190483588</v>
+        <v>235.5562439532473</v>
       </c>
       <c r="M41" t="n">
-        <v>203.6336430940767</v>
+        <v>283.1895956494426</v>
       </c>
       <c r="N41" t="n">
-        <v>347.3765942833174</v>
+        <v>283.1895956494426</v>
       </c>
       <c r="O41" t="n">
-        <v>491.1195454725582</v>
+        <v>405.821208417575</v>
       </c>
       <c r="P41" t="n">
-        <v>580.7796007646092</v>
+        <v>495.481263709626</v>
       </c>
       <c r="Q41" t="n">
-        <v>580.7796007646092</v>
+        <v>495.481263709626</v>
       </c>
       <c r="R41" t="n">
-        <v>580.7796007646092</v>
+        <v>495.481263709626</v>
       </c>
       <c r="S41" t="n">
-        <v>580.7796007646092</v>
+        <v>495.481263709626</v>
       </c>
       <c r="T41" t="n">
-        <v>580.7796007646092</v>
+        <v>495.481263709626</v>
       </c>
       <c r="U41" t="n">
-        <v>580.7796007646092</v>
+        <v>495.481263709626</v>
       </c>
       <c r="V41" t="n">
-        <v>580.7796007646092</v>
+        <v>495.481263709626</v>
       </c>
       <c r="W41" t="n">
-        <v>580.7796007646092</v>
+        <v>495.481263709626</v>
       </c>
       <c r="X41" t="n">
-        <v>434.1180854200109</v>
+        <v>495.481263709626</v>
       </c>
       <c r="Y41" t="n">
-        <v>287.4565700754126</v>
+        <v>495.481263709626</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>11.61559201529218</v>
+        <v>36.30754860801279</v>
       </c>
       <c r="C42" t="n">
-        <v>11.61559201529218</v>
+        <v>36.30754860801279</v>
       </c>
       <c r="D42" t="n">
-        <v>11.61559201529218</v>
+        <v>36.30754860801279</v>
       </c>
       <c r="E42" t="n">
-        <v>11.61559201529218</v>
+        <v>36.30754860801279</v>
       </c>
       <c r="F42" t="n">
-        <v>11.61559201529218</v>
+        <v>36.30754860801279</v>
       </c>
       <c r="G42" t="n">
-        <v>11.61559201529218</v>
+        <v>36.30754860801279</v>
       </c>
       <c r="H42" t="n">
-        <v>11.61559201529218</v>
+        <v>36.30754860801279</v>
       </c>
       <c r="I42" t="n">
-        <v>11.61559201529218</v>
+        <v>9.909625274192519</v>
       </c>
       <c r="J42" t="n">
-        <v>11.61559201529218</v>
+        <v>9.909625274192519</v>
       </c>
       <c r="K42" t="n">
-        <v>11.61559201529218</v>
+        <v>58.19186689189944</v>
       </c>
       <c r="L42" t="n">
-        <v>11.61559201529218</v>
+        <v>180.8234796600319</v>
       </c>
       <c r="M42" t="n">
-        <v>80.15618868355756</v>
+        <v>303.4550924281643</v>
       </c>
       <c r="N42" t="n">
-        <v>223.8991398727983</v>
+        <v>303.4550924281643</v>
       </c>
       <c r="O42" t="n">
-        <v>367.6420910620391</v>
+        <v>426.0867051962967</v>
       </c>
       <c r="P42" t="n">
-        <v>511.3850422512799</v>
+        <v>426.0867051962967</v>
       </c>
       <c r="Q42" t="n">
-        <v>580.7796007646092</v>
+        <v>495.481263709626</v>
       </c>
       <c r="R42" t="n">
-        <v>580.7796007646092</v>
+        <v>495.481263709626</v>
       </c>
       <c r="S42" t="n">
-        <v>580.7796007646092</v>
+        <v>495.481263709626</v>
       </c>
       <c r="T42" t="n">
-        <v>580.7796007646092</v>
+        <v>495.481263709626</v>
       </c>
       <c r="U42" t="n">
-        <v>434.1180854200109</v>
+        <v>370.3597324698214</v>
       </c>
       <c r="V42" t="n">
-        <v>287.4565700754126</v>
+        <v>370.3597324698214</v>
       </c>
       <c r="W42" t="n">
-        <v>140.7950547308143</v>
+        <v>286.5506110876219</v>
       </c>
       <c r="X42" t="n">
-        <v>11.61559201529218</v>
+        <v>161.4290798478173</v>
       </c>
       <c r="Y42" t="n">
-        <v>11.61559201529218</v>
+        <v>36.30754860801279</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>195.9805196618943</v>
+        <v>109.8737502807648</v>
       </c>
       <c r="C43" t="n">
-        <v>195.9805196618943</v>
+        <v>109.8737502807648</v>
       </c>
       <c r="D43" t="n">
-        <v>104.0447670109779</v>
+        <v>109.8737502807648</v>
       </c>
       <c r="E43" t="n">
-        <v>104.0447670109779</v>
+        <v>109.8737502807648</v>
       </c>
       <c r="F43" t="n">
-        <v>104.0447670109779</v>
+        <v>109.8737502807648</v>
       </c>
       <c r="G43" t="n">
-        <v>104.0447670109779</v>
+        <v>109.8737502807648</v>
       </c>
       <c r="H43" t="n">
-        <v>11.61559201529218</v>
+        <v>9.909625274192519</v>
       </c>
       <c r="I43" t="n">
-        <v>11.61559201529218</v>
+        <v>9.909625274192519</v>
       </c>
       <c r="J43" t="n">
-        <v>11.61559201529218</v>
+        <v>9.909625274192519</v>
       </c>
       <c r="K43" t="n">
-        <v>46.59188222253523</v>
+        <v>50.49289022999218</v>
       </c>
       <c r="L43" t="n">
-        <v>130.9290943451153</v>
+        <v>140.4370771011289</v>
       </c>
       <c r="M43" t="n">
-        <v>227.1402196522045</v>
+        <v>242.2551771567747</v>
       </c>
       <c r="N43" t="n">
-        <v>327.8541574225079</v>
+        <v>348.5760896756347</v>
       </c>
       <c r="O43" t="n">
-        <v>409.2165211722743</v>
+        <v>435.5454281739577</v>
       </c>
       <c r="P43" t="n">
-        <v>463.5453819593859</v>
+        <v>495.4812637096259</v>
       </c>
       <c r="Q43" t="n">
-        <v>463.5453819593859</v>
+        <v>495.4812637096259</v>
       </c>
       <c r="R43" t="n">
-        <v>342.6420350064926</v>
+        <v>380.2987358043366</v>
       </c>
       <c r="S43" t="n">
-        <v>195.9805196618943</v>
+        <v>255.177204564532</v>
       </c>
       <c r="T43" t="n">
-        <v>195.9805196618943</v>
+        <v>255.177204564532</v>
       </c>
       <c r="U43" t="n">
-        <v>195.9805196618943</v>
+        <v>255.177204564532</v>
       </c>
       <c r="V43" t="n">
-        <v>195.9805196618943</v>
+        <v>234.9952815205694</v>
       </c>
       <c r="W43" t="n">
-        <v>195.9805196618943</v>
+        <v>109.8737502807648</v>
       </c>
       <c r="X43" t="n">
-        <v>195.9805196618943</v>
+        <v>109.8737502807648</v>
       </c>
       <c r="Y43" t="n">
-        <v>195.9805196618943</v>
+        <v>109.8737502807648</v>
       </c>
     </row>
     <row r="44">
@@ -7624,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>394.677622278371</v>
+        <v>370.3597324698214</v>
       </c>
       <c r="C44" t="n">
-        <v>394.677622278371</v>
+        <v>370.3597324698214</v>
       </c>
       <c r="D44" t="n">
-        <v>394.677622278371</v>
+        <v>370.3597324698214</v>
       </c>
       <c r="E44" t="n">
-        <v>394.677622278371</v>
+        <v>260.1526877538016</v>
       </c>
       <c r="F44" t="n">
-        <v>394.677622278371</v>
+        <v>135.0311565139971</v>
       </c>
       <c r="G44" t="n">
-        <v>266.5022448172217</v>
+        <v>135.0311565139971</v>
       </c>
       <c r="H44" t="n">
-        <v>138.3268673560724</v>
+        <v>9.909625274192519</v>
       </c>
       <c r="I44" t="n">
-        <v>10.15148989492303</v>
+        <v>9.909625274192519</v>
       </c>
       <c r="J44" t="n">
-        <v>10.15148989492303</v>
+        <v>9.909625274192519</v>
       </c>
       <c r="K44" t="n">
-        <v>113.1664958058454</v>
+        <v>37.92637011317775</v>
       </c>
       <c r="L44" t="n">
-        <v>238.7911832555179</v>
+        <v>37.92637011317775</v>
       </c>
       <c r="M44" t="n">
-        <v>364.4158707051903</v>
+        <v>160.5579828813102</v>
       </c>
       <c r="N44" t="n">
-        <v>490.0405581548628</v>
+        <v>283.1895956494426</v>
       </c>
       <c r="O44" t="n">
-        <v>507.5744947461514</v>
+        <v>405.821208417575</v>
       </c>
       <c r="P44" t="n">
-        <v>507.5744947461514</v>
+        <v>495.481263709626</v>
       </c>
       <c r="Q44" t="n">
-        <v>507.5744947461514</v>
+        <v>495.481263709626</v>
       </c>
       <c r="R44" t="n">
-        <v>507.5744947461514</v>
+        <v>495.481263709626</v>
       </c>
       <c r="S44" t="n">
-        <v>507.5744947461514</v>
+        <v>495.481263709626</v>
       </c>
       <c r="T44" t="n">
-        <v>507.5744947461514</v>
+        <v>495.481263709626</v>
       </c>
       <c r="U44" t="n">
-        <v>507.5744947461514</v>
+        <v>370.3597324698214</v>
       </c>
       <c r="V44" t="n">
-        <v>507.5744947461514</v>
+        <v>370.3597324698214</v>
       </c>
       <c r="W44" t="n">
-        <v>507.5744947461514</v>
+        <v>370.3597324698214</v>
       </c>
       <c r="X44" t="n">
-        <v>507.5744947461514</v>
+        <v>370.3597324698214</v>
       </c>
       <c r="Y44" t="n">
-        <v>394.677622278371</v>
+        <v>370.3597324698214</v>
       </c>
     </row>
     <row r="45">
@@ -7703,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>382.6342334947172</v>
+        <v>36.30754860801279</v>
       </c>
       <c r="C45" t="n">
-        <v>266.3620909750095</v>
+        <v>36.30754860801279</v>
       </c>
       <c r="D45" t="n">
-        <v>266.3620909750095</v>
+        <v>36.30754860801279</v>
       </c>
       <c r="E45" t="n">
-        <v>266.3620909750095</v>
+        <v>36.30754860801279</v>
       </c>
       <c r="F45" t="n">
-        <v>178.0084197633138</v>
+        <v>36.30754860801279</v>
       </c>
       <c r="G45" t="n">
-        <v>97.45848110734859</v>
+        <v>36.30754860801279</v>
       </c>
       <c r="H45" t="n">
-        <v>42.27023227634723</v>
+        <v>36.30754860801279</v>
       </c>
       <c r="I45" t="n">
-        <v>10.15148989492303</v>
+        <v>9.909625274192519</v>
       </c>
       <c r="J45" t="n">
-        <v>10.15148989492303</v>
+        <v>9.909625274192519</v>
       </c>
       <c r="K45" t="n">
-        <v>10.15148989492303</v>
+        <v>58.19186689189944</v>
       </c>
       <c r="L45" t="n">
-        <v>61.30587388380469</v>
+        <v>58.19186689189944</v>
       </c>
       <c r="M45" t="n">
-        <v>186.9305613334772</v>
+        <v>58.19186689189944</v>
       </c>
       <c r="N45" t="n">
-        <v>312.5552487831496</v>
+        <v>180.8234796600319</v>
       </c>
       <c r="O45" t="n">
-        <v>438.1799362328221</v>
+        <v>303.4550924281643</v>
       </c>
       <c r="P45" t="n">
-        <v>438.1799362328221</v>
+        <v>426.0867051962967</v>
       </c>
       <c r="Q45" t="n">
-        <v>507.5744947461514</v>
+        <v>495.481263709626</v>
       </c>
       <c r="R45" t="n">
-        <v>497.870691282629</v>
+        <v>495.481263709626</v>
       </c>
       <c r="S45" t="n">
-        <v>382.6342334947172</v>
+        <v>385.9656249693181</v>
       </c>
       <c r="T45" t="n">
-        <v>382.6342334947172</v>
+        <v>260.8440937295136</v>
       </c>
       <c r="U45" t="n">
-        <v>382.6342334947172</v>
+        <v>161.4290798478173</v>
       </c>
       <c r="V45" t="n">
-        <v>382.6342334947172</v>
+        <v>36.30754860801279</v>
       </c>
       <c r="W45" t="n">
-        <v>382.6342334947172</v>
+        <v>36.30754860801279</v>
       </c>
       <c r="X45" t="n">
-        <v>382.6342334947172</v>
+        <v>36.30754860801279</v>
       </c>
       <c r="Y45" t="n">
-        <v>382.6342334947172</v>
+        <v>36.30754860801279</v>
       </c>
     </row>
     <row r="46">
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>84.82717796382479</v>
+        <v>130.0556733247275</v>
       </c>
       <c r="C46" t="n">
-        <v>84.82717796382479</v>
+        <v>130.0556733247275</v>
       </c>
       <c r="D46" t="n">
-        <v>84.82717796382479</v>
+        <v>130.0556733247275</v>
       </c>
       <c r="E46" t="n">
-        <v>84.82717796382479</v>
+        <v>130.0556733247275</v>
       </c>
       <c r="F46" t="n">
-        <v>84.82717796382479</v>
+        <v>130.0556733247275</v>
       </c>
       <c r="G46" t="n">
-        <v>84.82717796382479</v>
+        <v>130.0556733247275</v>
       </c>
       <c r="H46" t="n">
-        <v>84.82717796382479</v>
+        <v>30.09154831815525</v>
       </c>
       <c r="I46" t="n">
-        <v>46.27280527155703</v>
+        <v>30.09154831815525</v>
       </c>
       <c r="J46" t="n">
-        <v>10.15148989492303</v>
+        <v>9.909625274192519</v>
       </c>
       <c r="K46" t="n">
-        <v>45.12778010216607</v>
+        <v>50.49289022999217</v>
       </c>
       <c r="L46" t="n">
-        <v>129.4649922247461</v>
+        <v>140.4370771011288</v>
       </c>
       <c r="M46" t="n">
-        <v>225.6761175318354</v>
+        <v>242.2551771567748</v>
       </c>
       <c r="N46" t="n">
-        <v>326.3900553021388</v>
+        <v>348.5760896756348</v>
       </c>
       <c r="O46" t="n">
-        <v>407.7524190519051</v>
+        <v>435.5454281739578</v>
       </c>
       <c r="P46" t="n">
-        <v>462.0812798390168</v>
+        <v>495.481263709626</v>
       </c>
       <c r="Q46" t="n">
-        <v>462.0812798390168</v>
+        <v>495.481263709626</v>
       </c>
       <c r="R46" t="n">
-        <v>341.1779328861235</v>
+        <v>380.2987358043366</v>
       </c>
       <c r="S46" t="n">
-        <v>341.1779328861235</v>
+        <v>380.2987358043366</v>
       </c>
       <c r="T46" t="n">
-        <v>341.1779328861235</v>
+        <v>380.2987358043366</v>
       </c>
       <c r="U46" t="n">
-        <v>341.1779328861235</v>
+        <v>255.1772045645321</v>
       </c>
       <c r="V46" t="n">
-        <v>341.1779328861235</v>
+        <v>130.0556733247275</v>
       </c>
       <c r="W46" t="n">
-        <v>341.1779328861235</v>
+        <v>130.0556733247275</v>
       </c>
       <c r="X46" t="n">
-        <v>213.0025554249741</v>
+        <v>130.0556733247275</v>
       </c>
       <c r="Y46" t="n">
-        <v>84.82717796382479</v>
+        <v>130.0556733247275</v>
       </c>
     </row>
   </sheetData>
@@ -9166,19 +9166,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>315.9092397314873</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>331.585803656494</v>
+        <v>245.7298846774419</v>
       </c>
       <c r="M17" t="n">
-        <v>326.1656219137795</v>
+        <v>230.3462332272727</v>
       </c>
       <c r="N17" t="n">
-        <v>229.4130635965909</v>
+        <v>333.8145564900721</v>
       </c>
       <c r="O17" t="n">
-        <v>231.4803972400003</v>
+        <v>334.4997043151679</v>
       </c>
       <c r="P17" t="n">
         <v>321.7987081714826</v>
@@ -9245,13 +9245,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>233.6608276608657</v>
+        <v>242.2429318678402</v>
       </c>
       <c r="L18" t="n">
-        <v>234.3737684663809</v>
+        <v>242.9558726733553</v>
       </c>
       <c r="M18" t="n">
-        <v>234.081932156545</v>
+        <v>246.5355268154995</v>
       </c>
       <c r="N18" t="n">
         <v>131.3417120833333</v>
@@ -9260,10 +9260,10 @@
         <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>229.793796100837</v>
+        <v>164.0621445208735</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9406,19 +9406,19 @@
         <v>220.0898510449805</v>
       </c>
       <c r="L20" t="n">
-        <v>349.8870801611085</v>
+        <v>340.1679078634684</v>
       </c>
       <c r="M20" t="n">
-        <v>344.466898418394</v>
+        <v>334.7477261207539</v>
       </c>
       <c r="N20" t="n">
-        <v>338.9227928203941</v>
+        <v>239.0306019367486</v>
       </c>
       <c r="O20" t="n">
-        <v>344.2188766128079</v>
+        <v>334.4997043151678</v>
       </c>
       <c r="P20" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9482,19 +9482,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>177.2556545483347</v>
+        <v>242.2429318678401</v>
       </c>
       <c r="L21" t="n">
-        <v>252.6750449709954</v>
+        <v>168.6421168864174</v>
       </c>
       <c r="M21" t="n">
-        <v>256.2546991131396</v>
+        <v>246.5355268154995</v>
       </c>
       <c r="N21" t="n">
-        <v>245.4623772744545</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>246.9977373379256</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -9640,7 +9640,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>273.6903400231408</v>
       </c>
       <c r="L23" t="n">
         <v>417.6612145504504</v>
@@ -9722,16 +9722,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>366.8261886007618</v>
       </c>
       <c r="M24" t="n">
-        <v>312.04082470182</v>
+        <v>370.405842742906</v>
       </c>
       <c r="N24" t="n">
-        <v>131.3417120833333</v>
+        <v>267.5500670745795</v>
       </c>
       <c r="O24" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9877,7 +9877,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9892,7 +9892,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>271.3436356234587</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
@@ -9962,13 +9962,13 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>359.8407857361378</v>
+        <v>334.8706733016566</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>359.613520904221</v>
       </c>
       <c r="O27" t="n">
-        <v>383.6105333221035</v>
+        <v>370.8680532653322</v>
       </c>
       <c r="P27" t="n">
         <v>318.4627686399372</v>
@@ -10114,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10129,7 +10129,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>271.3436356234587</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10196,19 +10196,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>366.8261886007618</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>370.405842742906</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>278.8045994356906</v>
       </c>
       <c r="P30" t="n">
-        <v>247.3552705420797</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10351,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>273.6903400231408</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10430,22 +10430,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>185.3423563661624</v>
+        <v>366.8261886007618</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>370.405842742906</v>
       </c>
       <c r="N33" t="n">
-        <v>372.3560009609923</v>
+        <v>359.613520904221</v>
       </c>
       <c r="O33" t="n">
-        <v>383.6105333221035</v>
+        <v>235.0211518404099</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -10603,7 +10603,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>321.7987081714826</v>
+        <v>271.3436356234587</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
@@ -10670,22 +10670,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>160.883773526012</v>
       </c>
       <c r="M36" t="n">
-        <v>383.1483227996774</v>
+        <v>370.405842742906</v>
       </c>
       <c r="N36" t="n">
-        <v>372.3560009609923</v>
+        <v>359.613520904221</v>
       </c>
       <c r="O36" t="n">
-        <v>255.9771075721939</v>
+        <v>370.8680532653322</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10840,7 +10840,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>271.3436356234587</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10904,25 +10904,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>366.8261886007618</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>334.8706733016566</v>
       </c>
       <c r="N39" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O39" t="n">
-        <v>255.9771075721939</v>
+        <v>370.8680532653322</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11062,19 +11062,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>284.5291421311425</v>
+        <v>359.6367308973937</v>
       </c>
       <c r="M41" t="n">
-        <v>375.541133418425</v>
+        <v>278.4607298900963</v>
       </c>
       <c r="N41" t="n">
-        <v>374.6079637877432</v>
+        <v>229.4130635965909</v>
       </c>
       <c r="O41" t="n">
-        <v>375.293111612839</v>
+        <v>353.9685273490932</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11141,22 +11141,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>186.6113800023458</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>262.4246957072806</v>
       </c>
       <c r="M42" t="n">
-        <v>211.3669598495591</v>
+        <v>266.0043498494248</v>
       </c>
       <c r="N42" t="n">
-        <v>276.5366122744856</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>287.7911446355968</v>
+        <v>266.466560371851</v>
       </c>
       <c r="P42" t="n">
-        <v>279.1693076054826</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11299,22 +11299,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>248.3895933065818</v>
       </c>
       <c r="L44" t="n">
-        <v>362.6600386565251</v>
+        <v>235.7664149699872</v>
       </c>
       <c r="M44" t="n">
-        <v>357.2398569138106</v>
+        <v>354.2165491546792</v>
       </c>
       <c r="N44" t="n">
-        <v>356.3066872831288</v>
+        <v>353.2833795239974</v>
       </c>
       <c r="O44" t="n">
-        <v>247.8092584835944</v>
+        <v>353.9685273490932</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11378,22 +11378,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>186.6113800023458</v>
       </c>
       <c r="L45" t="n">
-        <v>190.2254747181385</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>269.0276576085562</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>258.2353357698711</v>
+        <v>255.2120280107398</v>
       </c>
       <c r="O45" t="n">
-        <v>269.4898681309823</v>
+        <v>266.466560371851</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>257.8447233417368</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>337.982875940212</v>
+        <v>332.3192650830841</v>
       </c>
       <c r="C17" t="n">
-        <v>224.7025373612322</v>
+        <v>314.8583151906111</v>
       </c>
       <c r="D17" t="n">
-        <v>214.1126872109076</v>
+        <v>304.2684650402865</v>
       </c>
       <c r="E17" t="n">
-        <v>337.1794043489932</v>
+        <v>331.5157934918653</v>
       </c>
       <c r="F17" t="n">
-        <v>362.1250800184429</v>
+        <v>356.461469161315</v>
       </c>
       <c r="G17" t="n">
-        <v>370.5517717918665</v>
+        <v>364.8881609347386</v>
       </c>
       <c r="H17" t="n">
-        <v>294.7238363924986</v>
+        <v>184.6587326418895</v>
       </c>
       <c r="I17" t="n">
-        <v>69.90553516063062</v>
+        <v>160.0613129900095</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>20.72043466280603</v>
+        <v>99.45454136075324</v>
       </c>
       <c r="S17" t="n">
-        <v>164.2691038629768</v>
+        <v>158.6054930058489</v>
       </c>
       <c r="T17" t="n">
-        <v>178.3448838408628</v>
+        <v>68.27978009025375</v>
       </c>
       <c r="U17" t="n">
-        <v>206.594687184568</v>
+        <v>96.52958343395889</v>
       </c>
       <c r="V17" t="n">
-        <v>283.0012927468663</v>
+        <v>185.3808469491603</v>
       </c>
       <c r="W17" t="n">
-        <v>304.4900029941444</v>
+        <v>298.8263921370166</v>
       </c>
       <c r="X17" t="n">
-        <v>324.9801349552005</v>
+        <v>319.3165240980726</v>
       </c>
       <c r="Y17" t="n">
-        <v>341.486972932785</v>
+        <v>335.8233620756571</v>
       </c>
     </row>
     <row r="18">
@@ -23810,28 +23810,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>121.7822179265988</v>
+        <v>116.1186070694709</v>
       </c>
       <c r="C18" t="n">
-        <v>127.9575332650472</v>
+        <v>122.2939224079193</v>
       </c>
       <c r="D18" t="n">
-        <v>102.6940998413702</v>
+        <v>97.03048898424231</v>
       </c>
       <c r="E18" t="n">
-        <v>112.8941147321324</v>
+        <v>107.2305038750045</v>
       </c>
       <c r="F18" t="n">
-        <v>100.3182466701153</v>
+        <v>94.65463581298744</v>
       </c>
       <c r="G18" t="n">
-        <v>92.5925514399421</v>
+        <v>86.92894058281419</v>
       </c>
       <c r="H18" t="n">
-        <v>67.48447851322791</v>
+        <v>61.82086765610003</v>
       </c>
       <c r="I18" t="n">
-        <v>44.64566712814653</v>
+        <v>38.98205627101864</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,28 +23858,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>55.40686842937459</v>
+        <v>49.7432575722467</v>
       </c>
       <c r="S18" t="n">
-        <v>31.11281669406253</v>
+        <v>121.2685945234414</v>
       </c>
       <c r="T18" t="n">
-        <v>155.4137629715531</v>
+        <v>149.7501521144252</v>
       </c>
       <c r="U18" t="n">
-        <v>85.37102767119953</v>
+        <v>71.12531260709721</v>
       </c>
       <c r="V18" t="n">
-        <v>92.23023273964998</v>
+        <v>77.98451767554766</v>
       </c>
       <c r="W18" t="n">
-        <v>206.9440174376511</v>
+        <v>201.2804065805232</v>
       </c>
       <c r="X18" t="n">
-        <v>161.0220194802089</v>
+        <v>50.95691572959987</v>
       </c>
       <c r="Y18" t="n">
-        <v>76.53401249896071</v>
+        <v>63.31128425632978</v>
       </c>
     </row>
     <row r="19">
@@ -23889,31 +23889,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>135.0810144586688</v>
+        <v>129.4174036015409</v>
       </c>
       <c r="C19" t="n">
-        <v>122.4958553753593</v>
+        <v>116.8322445182314</v>
       </c>
       <c r="D19" t="n">
-        <v>8.045118608437065</v>
+        <v>98.20089643781591</v>
       </c>
       <c r="E19" t="n">
-        <v>5.86360823679388</v>
+        <v>96.01938606617273</v>
       </c>
       <c r="F19" t="n">
-        <v>100.6700822996627</v>
+        <v>95.0064714425348</v>
       </c>
       <c r="G19" t="n">
-        <v>123.2400136351902</v>
+        <v>117.5764027780623</v>
       </c>
       <c r="H19" t="n">
-        <v>117.476206784171</v>
+        <v>19.855760986465</v>
       </c>
       <c r="I19" t="n">
-        <v>110.6995092039897</v>
+        <v>105.0358983468618</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>42.94460353627634</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,31 +23934,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.621574366754928</v>
+        <v>35.74746667129795</v>
       </c>
       <c r="R19" t="n">
-        <v>36.72303696739419</v>
+        <v>126.878814796773</v>
       </c>
       <c r="S19" t="n">
-        <v>179.2656323137037</v>
+        <v>173.6020214565758</v>
       </c>
       <c r="T19" t="n">
-        <v>183.194623705013</v>
+        <v>73.12951995440389</v>
       </c>
       <c r="U19" t="n">
-        <v>241.5680636332224</v>
+        <v>235.9044527760944</v>
       </c>
       <c r="V19" t="n">
-        <v>207.3866776005595</v>
+        <v>97.3215738499504</v>
       </c>
       <c r="W19" t="n">
-        <v>241.7720326133225</v>
+        <v>131.7069288627134</v>
       </c>
       <c r="X19" t="n">
-        <v>180.9586896657686</v>
+        <v>175.2950788086407</v>
       </c>
       <c r="Y19" t="n">
-        <v>173.8336876288263</v>
+        <v>168.1700767716983</v>
       </c>
     </row>
     <row r="20">
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>325.9052658563587</v>
+        <v>332.3192650830841</v>
       </c>
       <c r="C20" t="n">
-        <v>308.4443159638857</v>
+        <v>314.8583151906111</v>
       </c>
       <c r="D20" t="n">
-        <v>297.8544658135611</v>
+        <v>304.2684650402865</v>
       </c>
       <c r="E20" t="n">
-        <v>210.9811290740187</v>
+        <v>331.5157934918653</v>
       </c>
       <c r="F20" t="n">
-        <v>235.9268047434683</v>
+        <v>356.461469161315</v>
       </c>
       <c r="G20" t="n">
-        <v>244.3534965168919</v>
+        <v>364.8881609347386</v>
       </c>
       <c r="H20" t="n">
-        <v>282.6462263086453</v>
+        <v>289.0602255353707</v>
       </c>
       <c r="I20" t="n">
-        <v>153.647313763284</v>
+        <v>160.0613129900095</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>93.04054213402782</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>152.1914937791235</v>
+        <v>54.20400011236777</v>
       </c>
       <c r="T20" t="n">
-        <v>166.2672737570095</v>
+        <v>68.27978009025378</v>
       </c>
       <c r="U20" t="n">
-        <v>194.5170771007146</v>
+        <v>200.9310763274401</v>
       </c>
       <c r="V20" t="n">
-        <v>270.923682663013</v>
+        <v>277.3376818897385</v>
       </c>
       <c r="W20" t="n">
-        <v>292.4123929102911</v>
+        <v>201.9226056637105</v>
       </c>
       <c r="X20" t="n">
-        <v>212.3850429710076</v>
+        <v>319.3165240980726</v>
       </c>
       <c r="Y20" t="n">
-        <v>329.4093628489317</v>
+        <v>335.8233620756571</v>
       </c>
     </row>
     <row r="21">
@@ -24047,28 +24047,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>116.1186070694709</v>
       </c>
       <c r="C21" t="n">
-        <v>115.8799231811939</v>
+        <v>122.2939224079193</v>
       </c>
       <c r="D21" t="n">
-        <v>90.61648975751689</v>
+        <v>97.03048898424231</v>
       </c>
       <c r="E21" t="n">
-        <v>100.8165046482791</v>
+        <v>107.2305038750045</v>
       </c>
       <c r="F21" t="n">
-        <v>88.24063658626201</v>
+        <v>94.65463581298744</v>
       </c>
       <c r="G21" t="n">
-        <v>80.51494135608877</v>
+        <v>86.92894058281419</v>
       </c>
       <c r="H21" t="n">
-        <v>55.40686842937459</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>32.56805704429321</v>
+        <v>38.98205627101864</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,28 +24095,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>43.32925834552126</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>9.921056048000622</v>
+        <v>16.86710162996025</v>
       </c>
       <c r="T21" t="n">
-        <v>143.3361528876997</v>
+        <v>64.95594950871261</v>
       </c>
       <c r="U21" t="n">
-        <v>169.112806273853</v>
+        <v>175.5268055005784</v>
       </c>
       <c r="V21" t="n">
-        <v>175.9720113423034</v>
+        <v>182.3860105690288</v>
       </c>
       <c r="W21" t="n">
-        <v>80.74574216267651</v>
+        <v>201.2804065805232</v>
       </c>
       <c r="X21" t="n">
-        <v>148.9444093963556</v>
+        <v>155.358408623081</v>
       </c>
       <c r="Y21" t="n">
-        <v>34.73345477906126</v>
+        <v>50.86662630342678</v>
       </c>
     </row>
     <row r="22">
@@ -24126,31 +24126,31 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.882739183694198</v>
+        <v>129.4174036015409</v>
       </c>
       <c r="C22" t="n">
-        <v>6.942501751382082</v>
+        <v>12.43075162475026</v>
       </c>
       <c r="D22" t="n">
-        <v>91.78689721109049</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>89.60538683944731</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>88.59247221580938</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>117.5764027780623</v>
       </c>
       <c r="H22" t="n">
-        <v>105.3985967003177</v>
+        <v>111.8125959270431</v>
       </c>
       <c r="I22" t="n">
-        <v>98.62189912013642</v>
+        <v>105.0358983468618</v>
       </c>
       <c r="J22" t="n">
-        <v>36.5306043095509</v>
+        <v>42.94460353627634</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,31 +24171,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>29.33346744457251</v>
+        <v>24.21439989028094</v>
       </c>
       <c r="R22" t="n">
-        <v>6.344150378926386</v>
+        <v>126.878814796773</v>
       </c>
       <c r="S22" t="n">
-        <v>167.1880222298504</v>
+        <v>173.6020214565758</v>
       </c>
       <c r="T22" t="n">
-        <v>171.1170136211596</v>
+        <v>177.5310128478851</v>
       </c>
       <c r="U22" t="n">
-        <v>229.490453549369</v>
+        <v>235.9044527760944</v>
       </c>
       <c r="V22" t="n">
-        <v>195.3090675167061</v>
+        <v>201.7230667434316</v>
       </c>
       <c r="W22" t="n">
-        <v>229.6944225294691</v>
+        <v>236.1084217561946</v>
       </c>
       <c r="X22" t="n">
-        <v>168.8810795819153</v>
+        <v>175.2950788086407</v>
       </c>
       <c r="Y22" t="n">
-        <v>161.7560775449729</v>
+        <v>168.1700767716983</v>
       </c>
     </row>
     <row r="23">
@@ -24253,7 +24253,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>60.4724850897346</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -24262,19 +24262,19 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V23" t="n">
-        <v>19.78582081366235</v>
+        <v>238.3556256187198</v>
       </c>
       <c r="W23" t="n">
-        <v>18.83004698833889</v>
+        <v>31.57252704511026</v>
       </c>
       <c r="X23" t="n">
-        <v>280.334467827054</v>
+        <v>52.06265900616629</v>
       </c>
       <c r="Y23" t="n">
-        <v>296.8413058046385</v>
+        <v>120.8303412218596</v>
       </c>
     </row>
     <row r="24">
@@ -24284,25 +24284,25 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>77.13655079845226</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>83.31186613690066</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G24" t="n">
-        <v>23.09265618098688</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -24338,16 +24338,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>31.76718863070106</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>162.2983503095045</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>43.37873330327344</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>77.85018824721276</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>78.59434650704368</v>
       </c>
       <c r="H25" t="n">
         <v>72.8305396560245</v>
@@ -24387,7 +24387,7 @@
         <v>66.05384207584321</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24414,22 +24414,22 @@
         <v>87.89675852575441</v>
       </c>
       <c r="S25" t="n">
-        <v>134.6199651855572</v>
+        <v>83.46232703613012</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U25" t="n">
-        <v>196.9223965050758</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>162.7410104724129</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>197.1263654851759</v>
       </c>
       <c r="X25" t="n">
-        <v>136.3130225376221</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>129.1880205006797</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>52.32291993440646</v>
+        <v>65.06539999117783</v>
       </c>
       <c r="C26" t="n">
         <v>275.8762589195925</v>
@@ -24451,13 +24451,13 @@
         <v>265.2864087692679</v>
       </c>
       <c r="E26" t="n">
-        <v>292.5337372208467</v>
+        <v>225.1711447241252</v>
       </c>
       <c r="F26" t="n">
-        <v>317.4794128902964</v>
+        <v>89.20760406940869</v>
       </c>
       <c r="G26" t="n">
-        <v>113.6207190202779</v>
+        <v>97.6342958428323</v>
       </c>
       <c r="H26" t="n">
         <v>250.0781692643521</v>
@@ -24496,7 +24496,7 @@
         <v>119.6234367348303</v>
       </c>
       <c r="T26" t="n">
-        <v>133.6992167127163</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>161.9490200564214</v>
@@ -24508,10 +24508,10 @@
         <v>259.8443358659979</v>
       </c>
       <c r="X26" t="n">
-        <v>39.32017894939491</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y26" t="n">
-        <v>55.82701692697947</v>
+        <v>296.8413058046385</v>
       </c>
     </row>
     <row r="27">
@@ -24521,25 +24521,25 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>77.13655079845226</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>83.31186613690066</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>68.24844760398587</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G27" t="n">
         <v>47.94688431179556</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -24569,13 +24569,13 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>31.76718863070104</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>110.7680958434065</v>
       </c>
       <c r="U27" t="n">
         <v>0</v>
@@ -24584,10 +24584,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>31.82897112786156</v>
+        <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>116.3763523520624</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -24600,19 +24600,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>90.43534733052222</v>
       </c>
       <c r="C28" t="n">
         <v>77.85018824721276</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>59.21884016679728</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>57.03732979515409</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G28" t="n">
         <v>78.59434650704368</v>
@@ -24624,7 +24624,7 @@
         <v>66.05384207584321</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>3.962547265257697</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>87.89675852575441</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>134.6199651855572</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>138.5489565768664</v>
       </c>
       <c r="U28" t="n">
-        <v>99.2003830016868</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>162.7410104724129</v>
       </c>
       <c r="W28" t="n">
-        <v>197.1263654851759</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>136.3130225376221</v>
+        <v>21.98039003349345</v>
       </c>
       <c r="Y28" t="n">
-        <v>129.1880205006797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>293.3372088120655</v>
       </c>
       <c r="C29" t="n">
-        <v>275.8762589195925</v>
+        <v>47.6044500987048</v>
       </c>
       <c r="D29" t="n">
         <v>265.2864087692679</v>
@@ -24700,7 +24700,7 @@
         <v>250.0781692643521</v>
       </c>
       <c r="I29" t="n">
-        <v>121.0792567189908</v>
+        <v>53.7166642222693</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>60.4724850897346</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>119.6234367348303</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>161.9490200564214</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>10.08381679783216</v>
       </c>
       <c r="W29" t="n">
-        <v>18.83004698833889</v>
+        <v>31.57252704511026</v>
       </c>
       <c r="X29" t="n">
-        <v>239.6478035509817</v>
+        <v>280.334467827054</v>
       </c>
       <c r="Y29" t="n">
         <v>296.8413058046385</v>
@@ -24764,19 +24764,19 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>15.28573097017561</v>
+        <v>58.04843271322368</v>
       </c>
       <c r="E30" t="n">
-        <v>68.24844760398587</v>
+        <v>67.3797777800831</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>55.6725795419688</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>47.94688431179556</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>22.83881138508139</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -24806,22 +24806,22 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>10.76120130122806</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>110.7680958434065</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>143.4039542980102</v>
       </c>
       <c r="W30" t="n">
-        <v>162.2983503095045</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.866777022089124</v>
+        <v>50.7547373029848</v>
       </c>
       <c r="C31" t="n">
         <v>77.85018824721276</v>
       </c>
       <c r="D31" t="n">
-        <v>59.21884016679728</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>57.03732979515409</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>56.02441517151617</v>
       </c>
       <c r="G31" t="n">
         <v>78.59434650704368</v>
@@ -24888,16 +24888,16 @@
         <v>87.89675852575441</v>
       </c>
       <c r="S31" t="n">
-        <v>134.6199651855572</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>138.5489565768664</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>196.9223965050758</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>162.7410104724129</v>
       </c>
       <c r="W31" t="n">
         <v>197.1263654851759</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>129.1880205006797</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24973,19 +24973,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>132.8311217675261</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>169.5396583150732</v>
       </c>
       <c r="W32" t="n">
-        <v>237.0055244809166</v>
+        <v>8.733715660028878</v>
       </c>
       <c r="X32" t="n">
         <v>257.4956564419726</v>
       </c>
       <c r="Y32" t="n">
-        <v>32.98820554189808</v>
+        <v>274.0024944195571</v>
       </c>
     </row>
     <row r="33">
@@ -25004,10 +25004,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>42.71331248213582</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>32.83376815688742</v>
       </c>
       <c r="G33" t="n">
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>26.09606403470504</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>16.47857372369498</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>81.53652086436801</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>106.3492091155983</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>41.56171863317837</v>
+        <v>270.4983974269841</v>
       </c>
       <c r="C35" t="n">
-        <v>24.10076874070535</v>
+        <v>253.0374475345111</v>
       </c>
       <c r="D35" t="n">
-        <v>254.5252074680398</v>
+        <v>242.4475973841865</v>
       </c>
       <c r="E35" t="n">
-        <v>281.7725359196186</v>
+        <v>41.42311701487765</v>
       </c>
       <c r="F35" t="n">
-        <v>306.7182115890683</v>
+        <v>66.3687926843273</v>
       </c>
       <c r="G35" t="n">
-        <v>315.1449033624919</v>
+        <v>102.0054840692008</v>
       </c>
       <c r="H35" t="n">
-        <v>239.316967963124</v>
+        <v>227.2393578792707</v>
       </c>
       <c r="I35" t="n">
-        <v>110.3180554177628</v>
+        <v>98.24044533390945</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>37.63367370465322</v>
       </c>
       <c r="S35" t="n">
-        <v>108.8622354336022</v>
+        <v>96.78462534974888</v>
       </c>
       <c r="T35" t="n">
-        <v>122.9380154114882</v>
+        <v>110.8604053276349</v>
       </c>
       <c r="U35" t="n">
-        <v>151.1878187551933</v>
+        <v>139.11020867134</v>
       </c>
       <c r="V35" t="n">
-        <v>227.5944243174918</v>
+        <v>215.5168142336385</v>
       </c>
       <c r="W35" t="n">
-        <v>249.0831345647699</v>
+        <v>237.0055244809166</v>
       </c>
       <c r="X35" t="n">
-        <v>106.9991646708904</v>
+        <v>257.4956564419726</v>
       </c>
       <c r="Y35" t="n">
-        <v>45.06581562575138</v>
+        <v>45.73068559866945</v>
       </c>
     </row>
     <row r="36">
@@ -25241,16 +25241,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>57.48724630275781</v>
+        <v>17.60523955542165</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>32.83376815688742</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>25.10807292671417</v>
       </c>
       <c r="H36" t="n">
-        <v>12.07761008385333</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -25289,7 +25289,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>125.6177488220405</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>79.67414602929416</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>67.0889869459847</v>
+        <v>34.0569732454848</v>
       </c>
       <c r="D37" t="n">
-        <v>48.45763886556922</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>46.27612849392604</v>
+        <v>34.19851841007271</v>
       </c>
       <c r="F37" t="n">
-        <v>45.26321387028811</v>
+        <v>33.18560378643478</v>
       </c>
       <c r="G37" t="n">
-        <v>67.83314520581563</v>
+        <v>55.7555351219623</v>
       </c>
       <c r="H37" t="n">
-        <v>62.06933835479644</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>55.29264077461515</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>65.05794714067302</v>
       </c>
       <c r="S37" t="n">
-        <v>123.8587638843291</v>
+        <v>111.7811538004758</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>115.710145191785</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25374,13 +25374,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>136.9191527124892</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>113.4742111525407</v>
       </c>
       <c r="Y37" t="n">
-        <v>118.4268191994517</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>315.1440645551306</v>
+        <v>309.4804536980027</v>
       </c>
       <c r="C38" t="n">
-        <v>56.6688257849986</v>
+        <v>292.0195038055297</v>
       </c>
       <c r="D38" t="n">
-        <v>287.093264512333</v>
+        <v>281.4296536552051</v>
       </c>
       <c r="E38" t="n">
-        <v>73.32630408625278</v>
+        <v>80.40517328589627</v>
       </c>
       <c r="F38" t="n">
-        <v>339.2862686333615</v>
+        <v>132.5608485667958</v>
       </c>
       <c r="G38" t="n">
-        <v>347.7129604067851</v>
+        <v>342.0493495496572</v>
       </c>
       <c r="H38" t="n">
-        <v>271.8850250074172</v>
+        <v>266.2214141502893</v>
       </c>
       <c r="I38" t="n">
-        <v>142.886112462056</v>
+        <v>137.2225016049281</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>76.61572997567185</v>
       </c>
       <c r="S38" t="n">
-        <v>11.42424766725313</v>
+        <v>135.7666816207675</v>
       </c>
       <c r="T38" t="n">
-        <v>155.5060724557814</v>
+        <v>149.8424615986535</v>
       </c>
       <c r="U38" t="n">
-        <v>183.7558757994866</v>
+        <v>178.0922649423587</v>
       </c>
       <c r="V38" t="n">
-        <v>260.162481361785</v>
+        <v>254.4988705046571</v>
       </c>
       <c r="W38" t="n">
-        <v>40.63690273140401</v>
+        <v>47.7157719310475</v>
       </c>
       <c r="X38" t="n">
-        <v>302.1413235701191</v>
+        <v>296.4777127129912</v>
       </c>
       <c r="Y38" t="n">
-        <v>318.6481615477037</v>
+        <v>84.71274186968807</v>
       </c>
     </row>
     <row r="39">
@@ -25469,28 +25469,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>98.94340654151742</v>
+        <v>93.27979568438951</v>
       </c>
       <c r="C39" t="n">
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>33.58950589018735</v>
+        <v>74.19167759916093</v>
       </c>
       <c r="E39" t="n">
-        <v>90.05530334705102</v>
+        <v>19.59573671190591</v>
       </c>
       <c r="F39" t="n">
-        <v>77.47943528503396</v>
+        <v>71.81582442790605</v>
       </c>
       <c r="G39" t="n">
-        <v>69.75374005486071</v>
+        <v>64.09012919773281</v>
       </c>
       <c r="H39" t="n">
-        <v>44.64566712814654</v>
+        <v>38.98205627101864</v>
       </c>
       <c r="I39" t="n">
-        <v>21.80685574306516</v>
+        <v>16.14324488593725</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25517,13 +25517,13 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>32.56805704429321</v>
+        <v>26.90444618716531</v>
       </c>
       <c r="S39" t="n">
-        <v>104.0933939954879</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>132.5749515864717</v>
+        <v>126.9113407293438</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
@@ -25538,7 +25538,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>132.4293078118265</v>
       </c>
     </row>
     <row r="40">
@@ -25548,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>112.2422030735874</v>
+        <v>106.5785922164595</v>
       </c>
       <c r="C40" t="n">
-        <v>99.65704399027791</v>
+        <v>93.99343313315001</v>
       </c>
       <c r="D40" t="n">
-        <v>81.02569590986243</v>
+        <v>75.36208505273453</v>
       </c>
       <c r="E40" t="n">
-        <v>78.84418553821925</v>
+        <v>73.18057468109134</v>
       </c>
       <c r="F40" t="n">
-        <v>31.33304778905097</v>
+        <v>72.16766005745342</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>94.73759139298093</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>88.97378454196175</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>82.19708696178046</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>20.10579215119495</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25593,31 +25593,31 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>18.57226614334446</v>
+        <v>12.90865528621656</v>
       </c>
       <c r="R40" t="n">
-        <v>109.7036142688196</v>
+        <v>104.0400034116917</v>
       </c>
       <c r="S40" t="n">
-        <v>156.4268209286223</v>
+        <v>150.7632100714944</v>
       </c>
       <c r="T40" t="n">
-        <v>160.3558123199316</v>
+        <v>154.6922014628037</v>
       </c>
       <c r="U40" t="n">
-        <v>218.729252248141</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>184.5478662154781</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>218.9332212282411</v>
+        <v>65.75227926834523</v>
       </c>
       <c r="X40" t="n">
-        <v>158.1198782806872</v>
+        <v>152.4562674235593</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>145.331265386617</v>
       </c>
     </row>
     <row r="41">
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>197.2470956813086</v>
+        <v>319.4711529125476</v>
       </c>
       <c r="C41" t="n">
-        <v>307.6738138772024</v>
+        <v>302.0102030200745</v>
       </c>
       <c r="D41" t="n">
-        <v>297.0839637268779</v>
+        <v>291.4203528697499</v>
       </c>
       <c r="E41" t="n">
-        <v>324.3312921784567</v>
+        <v>318.6676813213288</v>
       </c>
       <c r="F41" t="n">
-        <v>349.2769678479063</v>
+        <v>234.5083827219188</v>
       </c>
       <c r="G41" t="n">
-        <v>212.5087594301777</v>
+        <v>228.1697328367955</v>
       </c>
       <c r="H41" t="n">
-        <v>281.8757242219621</v>
+        <v>152.3417974374276</v>
       </c>
       <c r="I41" t="n">
-        <v>152.8768116766008</v>
+        <v>23.34288489206639</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25675,28 +25675,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>92.27004004734457</v>
+        <v>86.60642919021666</v>
       </c>
       <c r="S41" t="n">
-        <v>151.4209916924402</v>
+        <v>145.7573808353123</v>
       </c>
       <c r="T41" t="n">
-        <v>165.4967716703262</v>
+        <v>159.8331608131983</v>
       </c>
       <c r="U41" t="n">
-        <v>193.7465750140314</v>
+        <v>188.0829641569035</v>
       </c>
       <c r="V41" t="n">
-        <v>270.1531805763298</v>
+        <v>264.4895697192019</v>
       </c>
       <c r="W41" t="n">
-        <v>291.6418908236079</v>
+        <v>285.97827996648</v>
       </c>
       <c r="X41" t="n">
-        <v>166.9371225935116</v>
+        <v>306.468411927536</v>
       </c>
       <c r="Y41" t="n">
-        <v>183.4439605710961</v>
+        <v>322.9752499051206</v>
       </c>
     </row>
     <row r="42">
@@ -25706,28 +25706,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>108.9341057560622</v>
+        <v>103.2704948989343</v>
       </c>
       <c r="C42" t="n">
-        <v>115.1094210945106</v>
+        <v>109.4458102373827</v>
       </c>
       <c r="D42" t="n">
-        <v>89.84598767083364</v>
+        <v>84.18237681370573</v>
       </c>
       <c r="E42" t="n">
-        <v>100.0460025615958</v>
+        <v>94.38239170446792</v>
       </c>
       <c r="F42" t="n">
-        <v>87.47013449957876</v>
+        <v>81.80652364245086</v>
       </c>
       <c r="G42" t="n">
-        <v>79.74443926940552</v>
+        <v>74.08082841227761</v>
       </c>
       <c r="H42" t="n">
-        <v>54.63636634269135</v>
+        <v>48.97275548556345</v>
       </c>
       <c r="I42" t="n">
-        <v>31.79755495760996</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -25754,28 +25754,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>42.55875625883802</v>
+        <v>36.89514540171012</v>
       </c>
       <c r="S42" t="n">
-        <v>114.0840932100327</v>
+        <v>108.4204823529048</v>
       </c>
       <c r="T42" t="n">
-        <v>142.5656508010165</v>
+        <v>136.9020399438886</v>
       </c>
       <c r="U42" t="n">
-        <v>23.1474039960174</v>
+        <v>38.8083774026353</v>
       </c>
       <c r="V42" t="n">
-        <v>30.00660906446785</v>
+        <v>169.5378983984922</v>
       </c>
       <c r="W42" t="n">
-        <v>48.90100507596219</v>
+        <v>105.4612642416091</v>
       </c>
       <c r="X42" t="n">
-        <v>20.28623922130542</v>
+        <v>18.63998052513796</v>
       </c>
       <c r="Y42" t="n">
-        <v>148.0836178834992</v>
+        <v>18.54969109896484</v>
       </c>
     </row>
     <row r="43">
@@ -25785,31 +25785,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>122.2329022881322</v>
+        <v>116.5692914310043</v>
       </c>
       <c r="C43" t="n">
-        <v>109.6477432048227</v>
+        <v>103.9841323476948</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>85.35278426727933</v>
       </c>
       <c r="E43" t="n">
-        <v>88.83488475276405</v>
+        <v>83.17127389563615</v>
       </c>
       <c r="F43" t="n">
-        <v>87.82197012912613</v>
+        <v>82.15835927199822</v>
       </c>
       <c r="G43" t="n">
-        <v>110.3919014646536</v>
+        <v>104.7282906075257</v>
       </c>
       <c r="H43" t="n">
-        <v>13.12321136790558</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>97.85139703345317</v>
+        <v>92.18778617632526</v>
       </c>
       <c r="J43" t="n">
-        <v>35.76010222286766</v>
+        <v>30.09649136573976</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,31 +25830,31 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>28.56296535788927</v>
+        <v>22.89935450076137</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>21.22261995201484</v>
+        <v>36.88359335863274</v>
       </c>
       <c r="T43" t="n">
-        <v>170.3465115344764</v>
+        <v>164.6829006773485</v>
       </c>
       <c r="U43" t="n">
-        <v>228.7199514626858</v>
+        <v>223.0563406055579</v>
       </c>
       <c r="V43" t="n">
-        <v>194.5385654300229</v>
+        <v>168.894850759372</v>
       </c>
       <c r="W43" t="n">
-        <v>228.9239204427859</v>
+        <v>99.38999365825148</v>
       </c>
       <c r="X43" t="n">
-        <v>168.110577495232</v>
+        <v>162.4469666381041</v>
       </c>
       <c r="Y43" t="n">
-        <v>160.9855754582897</v>
+        <v>155.3219646011618</v>
       </c>
     </row>
     <row r="44">
@@ -25864,28 +25864,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>325.1347637696755</v>
+        <v>319.4711529125476</v>
       </c>
       <c r="C44" t="n">
-        <v>307.6738138772024</v>
+        <v>302.0102030200745</v>
       </c>
       <c r="D44" t="n">
-        <v>297.0839637268779</v>
+        <v>291.4203528697499</v>
       </c>
       <c r="E44" t="n">
-        <v>324.3312921784567</v>
+        <v>209.5627070524691</v>
       </c>
       <c r="F44" t="n">
-        <v>349.2769678479063</v>
+        <v>219.7430410633719</v>
       </c>
       <c r="G44" t="n">
-        <v>230.8100359347921</v>
+        <v>352.040048764202</v>
       </c>
       <c r="H44" t="n">
-        <v>154.9821005354242</v>
+        <v>152.3417974374276</v>
       </c>
       <c r="I44" t="n">
-        <v>25.98318799006294</v>
+        <v>147.2132008194729</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25912,28 +25912,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>92.27004004734457</v>
+        <v>86.60642919021666</v>
       </c>
       <c r="S44" t="n">
-        <v>151.4209916924402</v>
+        <v>145.7573808353123</v>
       </c>
       <c r="T44" t="n">
-        <v>165.4967716703262</v>
+        <v>159.8331608131983</v>
       </c>
       <c r="U44" t="n">
-        <v>193.7465750140314</v>
+        <v>64.21264822949698</v>
       </c>
       <c r="V44" t="n">
-        <v>270.1531805763298</v>
+        <v>264.4895697192019</v>
       </c>
       <c r="W44" t="n">
-        <v>291.6418908236079</v>
+        <v>285.97827996648</v>
       </c>
       <c r="X44" t="n">
-        <v>312.1320227846639</v>
+        <v>306.468411927536</v>
       </c>
       <c r="Y44" t="n">
-        <v>216.8709570191459</v>
+        <v>322.9752499051206</v>
       </c>
     </row>
     <row r="45">
@@ -25943,25 +25943,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>108.9341057560622</v>
+        <v>103.2704948989343</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>109.4458102373827</v>
       </c>
       <c r="D45" t="n">
-        <v>89.84598767083364</v>
+        <v>84.18237681370573</v>
       </c>
       <c r="E45" t="n">
-        <v>100.0460025615958</v>
+        <v>94.38239170446792</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>81.80652364245086</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>74.08082841227761</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>48.97275548556345</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -25991,28 +25991,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>32.95199082995087</v>
+        <v>36.89514540171012</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>142.5656508010165</v>
+        <v>13.03172401648209</v>
       </c>
       <c r="U45" t="n">
-        <v>168.3423041871697</v>
+        <v>64.25782958716252</v>
       </c>
       <c r="V45" t="n">
-        <v>175.2015092556202</v>
+        <v>45.66758247108575</v>
       </c>
       <c r="W45" t="n">
-        <v>194.0959052671145</v>
+        <v>188.4322944099866</v>
       </c>
       <c r="X45" t="n">
-        <v>148.1739073096724</v>
+        <v>142.5102964525445</v>
       </c>
       <c r="Y45" t="n">
-        <v>148.0836178834992</v>
+        <v>142.4200070263713</v>
       </c>
     </row>
     <row r="46">
@@ -26022,31 +26022,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>122.2329022881322</v>
+        <v>116.5692914310043</v>
       </c>
       <c r="C46" t="n">
-        <v>109.6477432048227</v>
+        <v>103.9841323476948</v>
       </c>
       <c r="D46" t="n">
-        <v>91.01639512440724</v>
+        <v>85.35278426727933</v>
       </c>
       <c r="E46" t="n">
-        <v>88.83488475276405</v>
+        <v>83.17127389563615</v>
       </c>
       <c r="F46" t="n">
-        <v>87.82197012912613</v>
+        <v>82.15835927199822</v>
       </c>
       <c r="G46" t="n">
-        <v>110.3919014646536</v>
+        <v>104.7282906075257</v>
       </c>
       <c r="H46" t="n">
-        <v>104.6280946136345</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>59.68256806810808</v>
+        <v>92.18778617632526</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>10.11638755221666</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,31 +26067,31 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>28.56296535788927</v>
+        <v>22.89935450076137</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>166.4175201431671</v>
+        <v>160.7539092860392</v>
       </c>
       <c r="T46" t="n">
-        <v>170.3465115344764</v>
+        <v>164.6829006773485</v>
       </c>
       <c r="U46" t="n">
-        <v>228.7199514626858</v>
+        <v>99.18602467815137</v>
       </c>
       <c r="V46" t="n">
-        <v>194.5385654300229</v>
+        <v>65.00463864548848</v>
       </c>
       <c r="W46" t="n">
-        <v>228.9239204427859</v>
+        <v>223.260309585658</v>
       </c>
       <c r="X46" t="n">
-        <v>41.21695380869419</v>
+        <v>162.4469666381041</v>
       </c>
       <c r="Y46" t="n">
-        <v>34.09195177175182</v>
+        <v>155.3219646011618</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>392448.1007191672</v>
+        <v>408235.3587243055</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>426114.3167232703</v>
+        <v>408235.3587243054</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>559396.1322411285</v>
+        <v>552412.2190521181</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>559396.1322411285</v>
+        <v>552412.2190521179</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>559396.1322411285</v>
+        <v>552412.2190521181</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>602928.4161333869</v>
+        <v>595944.5029443764</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>580095.4662445836</v>
+        <v>595944.5029443764</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>516721.767257818</v>
+        <v>520821.4224865567</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>444653.3758639129</v>
+        <v>444049.3415052621</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>434622.7910965163</v>
+        <v>444049.341505262</v>
       </c>
     </row>
   </sheetData>
@@ -26316,10 +26316,10 @@
         <v>798794.4302491124</v>
       </c>
       <c r="C2" t="n">
-        <v>798794.4302491127</v>
+        <v>798794.4302491128</v>
       </c>
       <c r="D2" t="n">
-        <v>798794.4302491129</v>
+        <v>798794.4302491128</v>
       </c>
       <c r="E2" t="n">
         <v>234740.9065329396</v>
@@ -26328,34 +26328,34 @@
         <v>234740.9065329396</v>
       </c>
       <c r="G2" t="n">
-        <v>368910.6849662303</v>
+        <v>386816.2100039537</v>
       </c>
       <c r="H2" t="n">
-        <v>407094.0904309831</v>
+        <v>386816.2100039535</v>
       </c>
       <c r="I2" t="n">
-        <v>545852.119128887</v>
+        <v>539969.9207038035</v>
       </c>
       <c r="J2" t="n">
-        <v>545852.1191288867</v>
+        <v>539969.9207038035</v>
       </c>
       <c r="K2" t="n">
-        <v>545852.1191288868</v>
+        <v>539969.9207038033</v>
       </c>
       <c r="L2" t="n">
-        <v>600618.5407997936</v>
+        <v>594736.34237471</v>
       </c>
       <c r="M2" t="n">
-        <v>571893.2167461386</v>
+        <v>594736.3423747099</v>
       </c>
       <c r="N2" t="n">
-        <v>492165.014795046</v>
+        <v>500226.6605084204</v>
       </c>
       <c r="O2" t="n">
-        <v>423335.5956290569</v>
+        <v>427435.5604431676</v>
       </c>
       <c r="P2" t="n">
-        <v>414887.3391395162</v>
+        <v>427435.5604431675</v>
       </c>
     </row>
     <row r="3">
@@ -26380,13 +26380,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>54070.8703551202</v>
+        <v>60953.98507239109</v>
       </c>
       <c r="H3" t="n">
-        <v>14599.93717951618</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>59798.12493978238</v>
+        <v>64125.36329854678</v>
       </c>
       <c r="J3" t="n">
         <v>7992.559371635843</v>
@@ -26395,7 +26395,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>46079.2623150441</v>
+        <v>50610.15100074641</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26432,34 +26432,34 @@
         <v>95325.00563235153</v>
       </c>
       <c r="G4" t="n">
-        <v>164880.49220809</v>
+        <v>174614.6147612058</v>
       </c>
       <c r="H4" t="n">
-        <v>185638.4396855399</v>
+        <v>174614.6147612058</v>
       </c>
       <c r="I4" t="n">
-        <v>255716.9332949485</v>
+        <v>253399.3804476002</v>
       </c>
       <c r="J4" t="n">
-        <v>255716.9332949485</v>
+        <v>253399.3804476002</v>
       </c>
       <c r="K4" t="n">
-        <v>255716.9332949485</v>
+        <v>253399.3804476002</v>
       </c>
       <c r="L4" t="n">
-        <v>287832.4744486646</v>
+        <v>285514.9216013162</v>
       </c>
       <c r="M4" t="n">
-        <v>270986.7915526711</v>
+        <v>285514.9216013162</v>
       </c>
       <c r="N4" t="n">
-        <v>224247.0125815316</v>
+        <v>230102.7024622963</v>
       </c>
       <c r="O4" t="n">
-        <v>192402.0242645052</v>
+        <v>196696.8343202672</v>
       </c>
       <c r="P4" t="n">
-        <v>189073.4590806154</v>
+        <v>196696.8343202672</v>
       </c>
     </row>
     <row r="5">
@@ -26484,34 +26484,34 @@
         <v>839.9080922675672</v>
       </c>
       <c r="G5" t="n">
-        <v>9587.987769529074</v>
+        <v>10585.913806461</v>
       </c>
       <c r="H5" t="n">
-        <v>11716.0579831491</v>
+        <v>10585.913806461</v>
       </c>
       <c r="I5" t="n">
-        <v>22169.15429094728</v>
+        <v>21394.41150349558</v>
       </c>
       <c r="J5" t="n">
-        <v>22169.15429094728</v>
+        <v>21394.41150349558</v>
       </c>
       <c r="K5" t="n">
-        <v>22169.15429094728</v>
+        <v>21394.41150349558</v>
       </c>
       <c r="L5" t="n">
-        <v>24089.19032527969</v>
+        <v>23314.44753782799</v>
       </c>
       <c r="M5" t="n">
-        <v>23073.83772314023</v>
+        <v>23314.44753782799</v>
       </c>
       <c r="N5" t="n">
-        <v>20335.87373548354</v>
+        <v>20037.26504917972</v>
       </c>
       <c r="O5" t="n">
-        <v>13670.14681107636</v>
+        <v>12849.7461889885</v>
       </c>
       <c r="P5" t="n">
-        <v>12557.4291995958</v>
+        <v>12849.7461889885</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>339643.6910830089</v>
+        <v>339599.5553043278</v>
       </c>
       <c r="C6" t="n">
-        <v>339643.6910830091</v>
+        <v>339599.5553043281</v>
       </c>
       <c r="D6" t="n">
-        <v>339643.6910830094</v>
+        <v>339599.5553043282</v>
       </c>
       <c r="E6" t="n">
-        <v>130583.4334366847</v>
+        <v>116076.3867934863</v>
       </c>
       <c r="F6" t="n">
-        <v>138575.9928083205</v>
+        <v>124068.9461651221</v>
       </c>
       <c r="G6" t="n">
-        <v>140371.334633491</v>
+        <v>130054.0164763645</v>
       </c>
       <c r="H6" t="n">
-        <v>195139.655582778</v>
+        <v>191008.0015487554</v>
       </c>
       <c r="I6" t="n">
-        <v>208167.9066032088</v>
+        <v>194370.1037897028</v>
       </c>
       <c r="J6" t="n">
-        <v>259973.472171355</v>
+        <v>250502.9077166136</v>
       </c>
       <c r="K6" t="n">
-        <v>267966.031542991</v>
+        <v>258495.4670882493</v>
       </c>
       <c r="L6" t="n">
-        <v>242617.6137108052</v>
+        <v>230020.4277926921</v>
       </c>
       <c r="M6" t="n">
-        <v>277832.5874703273</v>
+        <v>280630.5787934384</v>
       </c>
       <c r="N6" t="n">
-        <v>247582.1284780309</v>
+        <v>242386.9733787583</v>
       </c>
       <c r="O6" t="n">
-        <v>217263.4245534754</v>
+        <v>208322.8218525143</v>
       </c>
       <c r="P6" t="n">
-        <v>213256.450859305</v>
+        <v>208322.8218525141</v>
       </c>
     </row>
   </sheetData>
@@ -26700,10 +26700,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="G2" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="H2" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="I2" t="n">
         <v>89.39663285141508</v>
@@ -26718,16 +26718,16 @@
         <v>112.2354442364965</v>
       </c>
       <c r="M2" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="N2" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="O2" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="P2" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
     </row>
     <row r="3">
@@ -26804,34 +26804,34 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>95.81938868650676</v>
+        <v>104.4014928934812</v>
       </c>
       <c r="H4" t="n">
-        <v>114.1206651911212</v>
+        <v>104.4014928934811</v>
       </c>
       <c r="I4" t="n">
-        <v>241.0142888776591</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="K4" t="n">
-        <v>241.0142888776591</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="L4" t="n">
-        <v>241.0142888776591</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="M4" t="n">
-        <v>241.0142888776591</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="N4" t="n">
-        <v>241.0142888776591</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="O4" t="n">
-        <v>145.1949001911523</v>
+        <v>123.8703159274065</v>
       </c>
       <c r="P4" t="n">
-        <v>126.8936236865379</v>
+        <v>123.8703159274065</v>
       </c>
     </row>
   </sheetData>
@@ -26922,13 +26922,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>34.76026650872374</v>
+        <v>40.42387736585163</v>
       </c>
       <c r="H2" t="n">
-        <v>12.07761008385333</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>32.56805704429321</v>
+        <v>38.98205627101864</v>
       </c>
       <c r="J2" t="n">
         <v>9.990699214544804</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27026,13 +27026,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>95.81938868650676</v>
+        <v>104.4014928934811</v>
       </c>
       <c r="H4" t="n">
-        <v>18.30127650461445</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>126.8936236865378</v>
+        <v>123.8703159274066</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27159,13 +27159,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>34.76026650872374</v>
+        <v>40.42387736585163</v>
       </c>
       <c r="M2" t="n">
-        <v>12.07761008385333</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>32.56805704429321</v>
+        <v>38.98205627101864</v>
       </c>
       <c r="O2" t="n">
         <v>9.990699214544804</v>
@@ -27272,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>95.81938868650676</v>
+        <v>104.4014928934811</v>
       </c>
       <c r="P4" t="n">
-        <v>18.30127650461445</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -28563,28 +28563,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="C17" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="D17" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="E17" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="F17" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="G17" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="H17" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="I17" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="J17" t="n">
         <v>11.94928935461252</v>
@@ -28611,28 +28611,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="S17" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="T17" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="U17" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="V17" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="W17" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="X17" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="Y17" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
     </row>
     <row r="18">
@@ -28642,28 +28642,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="C18" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="D18" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="E18" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="F18" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="G18" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="H18" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="I18" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="J18" t="n">
         <v>0.7465913262578567</v>
@@ -28690,28 +28690,28 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="S18" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="T18" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="U18" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="V18" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="W18" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="X18" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="Y18" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
     </row>
     <row r="19">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="C19" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="D19" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="E19" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="F19" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="G19" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="H19" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="I19" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="J19" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="K19" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="L19" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="M19" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="N19" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="O19" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="P19" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="Q19" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="R19" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="S19" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="T19" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="U19" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="V19" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="W19" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="X19" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="Y19" t="n">
-        <v>44.75096572326854</v>
+        <v>50.41457658039644</v>
       </c>
     </row>
     <row r="20">
@@ -28800,28 +28800,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="C20" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="D20" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="E20" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="F20" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="G20" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="H20" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="I20" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="J20" t="n">
         <v>11.94928935461252</v>
@@ -28848,28 +28848,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R20" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="S20" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="T20" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="U20" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="V20" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="W20" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="X20" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="Y20" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
     </row>
     <row r="21">
@@ -28879,28 +28879,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="C21" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="D21" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="E21" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="F21" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="G21" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="H21" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="I21" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="J21" t="n">
         <v>0.7465913262578567</v>
@@ -28927,28 +28927,28 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="S21" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="T21" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="U21" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="V21" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="W21" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="X21" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="Y21" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
     </row>
     <row r="22">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="C22" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="D22" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="E22" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="F22" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="G22" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="H22" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="I22" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="J22" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="K22" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="L22" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="M22" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="N22" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="O22" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="P22" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="Q22" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="R22" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="S22" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="T22" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="U22" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="V22" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="W22" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="X22" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
       <c r="Y22" t="n">
-        <v>56.82857580712187</v>
+        <v>50.41457658039644</v>
       </c>
     </row>
     <row r="23">
@@ -29985,28 +29985,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C35" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D35" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E35" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F35" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G35" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H35" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I35" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J35" t="n">
         <v>11.94928935461252</v>
@@ -30033,28 +30033,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S35" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T35" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U35" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V35" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W35" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X35" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y35" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="36">
@@ -30064,25 +30064,25 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C36" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D36" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E36" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F36" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G36" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H36" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
         <v>89.39663285141508</v>
@@ -30115,25 +30115,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T36" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U36" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V36" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W36" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X36" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y36" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="37">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="C37" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="D37" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="E37" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="F37" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="G37" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="H37" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I37" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="J37" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="K37" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="L37" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="M37" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="N37" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="O37" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="P37" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Q37" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="R37" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="S37" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="T37" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="U37" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="V37" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="W37" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="X37" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="Y37" t="n">
-        <v>100.1578341526431</v>
+        <v>112.2354442364965</v>
       </c>
     </row>
     <row r="38">
@@ -30222,28 +30222,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="C38" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="D38" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="E38" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="F38" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="G38" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="H38" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="I38" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="J38" t="n">
         <v>11.94928935461252</v>
@@ -30270,28 +30270,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="S38" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="T38" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="U38" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="V38" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="W38" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="X38" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="Y38" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
     </row>
     <row r="39">
@@ -30301,28 +30301,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="C39" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="D39" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="E39" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="F39" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="G39" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="H39" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="I39" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="J39" t="n">
         <v>0.7465913262578567</v>
@@ -30349,28 +30349,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="S39" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="T39" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="U39" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="V39" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="W39" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="X39" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="Y39" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
     </row>
     <row r="40">
@@ -30380,76 +30380,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="C40" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="D40" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="E40" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="F40" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="G40" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="H40" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="I40" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="J40" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="K40" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="L40" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="M40" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="N40" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="O40" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="P40" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="Q40" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="R40" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="S40" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="T40" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="U40" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="V40" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="W40" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="X40" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
       <c r="Y40" t="n">
-        <v>67.58977710834992</v>
+        <v>73.25338796547783</v>
       </c>
     </row>
     <row r="41">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="C41" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="D41" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="E41" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="F41" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="G41" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="H41" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="I41" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="J41" t="n">
         <v>11.94928935461252</v>
@@ -30507,28 +30507,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R41" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="S41" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="T41" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="U41" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="V41" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="W41" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="X41" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="Y41" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
     </row>
     <row r="42">
@@ -30538,28 +30538,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="C42" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="D42" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="E42" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="F42" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="G42" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="H42" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="I42" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
@@ -30586,28 +30586,28 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="S42" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="T42" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="U42" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="V42" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="W42" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="X42" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="Y42" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
     </row>
     <row r="43">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="C43" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="D43" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="E43" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="F43" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="G43" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="H43" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="I43" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="J43" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="K43" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="L43" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="M43" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="N43" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="O43" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="P43" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="R43" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="S43" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="T43" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="U43" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="V43" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="W43" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="X43" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="Y43" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="C44" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="D44" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="E44" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="F44" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="G44" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="H44" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="I44" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="J44" t="n">
         <v>11.94928935461252</v>
@@ -30744,28 +30744,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="S44" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="T44" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="U44" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="V44" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="W44" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="X44" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="Y44" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
     </row>
     <row r="45">
@@ -30775,28 +30775,28 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="C45" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="D45" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="E45" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="F45" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="G45" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="H45" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="I45" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -30823,28 +30823,28 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="S45" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="T45" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="U45" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="V45" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="W45" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="X45" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="Y45" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
     </row>
     <row r="46">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="C46" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="D46" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="E46" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="F46" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="G46" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="H46" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="I46" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="J46" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="K46" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="L46" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="M46" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="N46" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="O46" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="P46" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="R46" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="S46" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="T46" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="U46" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="V46" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="W46" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="X46" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
       <c r="Y46" t="n">
-        <v>57.59907789380512</v>
+        <v>63.26268875093302</v>
       </c>
     </row>
   </sheetData>
@@ -35886,19 +35886,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>95.81938868650676</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>95.81938868650676</v>
+        <v>9.963469707454676</v>
       </c>
       <c r="M17" t="n">
-        <v>95.81938868650676</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>104.4014928934812</v>
       </c>
       <c r="O17" t="n">
-        <v>1.382185818313602</v>
+        <v>104.4014928934812</v>
       </c>
       <c r="P17" t="n">
         <v>90.5657124162131</v>
@@ -35965,13 +35965,13 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>95.81938868650676</v>
+        <v>104.4014928934812</v>
       </c>
       <c r="L18" t="n">
-        <v>95.81938868650676</v>
+        <v>104.4014928934812</v>
       </c>
       <c r="M18" t="n">
-        <v>91.9478982345267</v>
+        <v>104.4014928934812</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -35980,10 +35980,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>95.81938868650676</v>
+        <v>30.08773710654321</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>22.48147389738569</v>
+        <v>28.14508475451358</v>
       </c>
       <c r="L19" t="n">
-        <v>72.34099098358467</v>
+        <v>78.00460184071258</v>
       </c>
       <c r="M19" t="n">
-        <v>84.33484268510912</v>
+        <v>89.99845354223703</v>
       </c>
       <c r="N19" t="n">
-        <v>88.88313810249713</v>
+        <v>94.54674895962503</v>
       </c>
       <c r="O19" t="n">
-        <v>69.33609363730821</v>
+        <v>74.99970449443612</v>
       </c>
       <c r="P19" t="n">
-        <v>42.02952498816203</v>
+        <v>47.69313584528992</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36126,19 +36126,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>114.1206651911212</v>
+        <v>104.4014928934811</v>
       </c>
       <c r="M20" t="n">
-        <v>114.1206651911212</v>
+        <v>104.4014928934811</v>
       </c>
       <c r="N20" t="n">
-        <v>109.5097292238032</v>
+        <v>9.617538340157699</v>
       </c>
       <c r="O20" t="n">
-        <v>114.1206651911212</v>
+        <v>104.4014928934811</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36202,19 +36202,19 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>39.41421557397569</v>
+        <v>104.4014928934811</v>
       </c>
       <c r="L21" t="n">
-        <v>114.1206651911212</v>
+        <v>30.08773710654324</v>
       </c>
       <c r="M21" t="n">
-        <v>114.1206651911212</v>
+        <v>104.4014928934811</v>
       </c>
       <c r="N21" t="n">
-        <v>114.1206651911212</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>104.4014928934811</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>34.55908398123902</v>
+        <v>28.14508475451358</v>
       </c>
       <c r="L22" t="n">
-        <v>84.418601067438</v>
+        <v>78.00460184071258</v>
       </c>
       <c r="M22" t="n">
-        <v>96.41245276896245</v>
+        <v>89.99845354223703</v>
       </c>
       <c r="N22" t="n">
-        <v>100.9607481863505</v>
+        <v>94.54674895962503</v>
       </c>
       <c r="O22" t="n">
-        <v>81.41370372116154</v>
+        <v>74.99970449443612</v>
       </c>
       <c r="P22" t="n">
-        <v>54.10713507201536</v>
+        <v>47.69313584528992</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36360,7 +36360,7 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>104.0555615261842</v>
+        <v>53.60048897816024</v>
       </c>
       <c r="L23" t="n">
         <v>181.8947995804632</v>
@@ -36442,16 +36442,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="M24" t="n">
-        <v>169.9067907798017</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>136.2083549912462</v>
       </c>
       <c r="O24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>184.4883612256069</v>
@@ -36612,7 +36612,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P26" t="n">
-        <v>90.5657124162131</v>
+        <v>40.11063986818917</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -36682,13 +36682,13 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>217.7067518141195</v>
+        <v>192.7366393796383</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="O27" t="n">
-        <v>241.0142888776591</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="P27" t="n">
         <v>184.4883612256069</v>
@@ -36849,7 +36849,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P29" t="n">
-        <v>90.5657124162131</v>
+        <v>40.11063986818917</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36916,19 +36916,19 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>232.285965523585</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>136.2083549912462</v>
       </c>
       <c r="P30" t="n">
-        <v>113.3808631277494</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37071,7 +37071,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>104.0555615261842</v>
+        <v>53.60048897816024</v>
       </c>
       <c r="L32" t="n">
         <v>181.8947995804632</v>
@@ -37150,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>46.78797658628819</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="N33" t="n">
-        <v>241.0142888776591</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="O33" t="n">
-        <v>241.0142888776591</v>
+        <v>92.4249073959655</v>
       </c>
       <c r="P33" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P35" t="n">
-        <v>90.5657124162131</v>
+        <v>40.11063986818917</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37390,22 +37390,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>22.32939374613785</v>
       </c>
       <c r="M36" t="n">
-        <v>241.0142888776591</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="N36" t="n">
-        <v>241.0142888776591</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="O36" t="n">
-        <v>113.3808631277494</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>6.798654035970358</v>
+        <v>18.87626411982369</v>
       </c>
       <c r="K37" t="n">
-        <v>77.88834232676028</v>
+        <v>89.96595241061361</v>
       </c>
       <c r="L37" t="n">
-        <v>127.7478594129593</v>
+        <v>139.8254694968126</v>
       </c>
       <c r="M37" t="n">
-        <v>139.7417111144837</v>
+        <v>151.819321198337</v>
       </c>
       <c r="N37" t="n">
-        <v>144.2900065318717</v>
+        <v>156.3676166157251</v>
       </c>
       <c r="O37" t="n">
-        <v>124.7429620666828</v>
+        <v>136.8205721505361</v>
       </c>
       <c r="P37" t="n">
-        <v>97.43639341753662</v>
+        <v>109.51400350139</v>
       </c>
       <c r="Q37" t="n">
-        <v>13.99579090094875</v>
+        <v>26.07340098480208</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37560,7 +37560,7 @@
         <v>150.7019698410586</v>
       </c>
       <c r="P38" t="n">
-        <v>90.5657124162131</v>
+        <v>40.11063986818917</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -37624,25 +37624,25 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>192.7366393796383</v>
       </c>
       <c r="N39" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>113.3808631277494</v>
+        <v>228.2718088208877</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37703,22 +37703,22 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>45.32028528246707</v>
+        <v>50.98389613959498</v>
       </c>
       <c r="L40" t="n">
-        <v>95.17980236866606</v>
+        <v>100.843413225794</v>
       </c>
       <c r="M40" t="n">
-        <v>107.1736540701905</v>
+        <v>112.8372649273184</v>
       </c>
       <c r="N40" t="n">
-        <v>111.7219494875785</v>
+        <v>117.3855603447064</v>
       </c>
       <c r="O40" t="n">
-        <v>92.17490502238959</v>
+        <v>97.8385158795175</v>
       </c>
       <c r="P40" t="n">
-        <v>64.86833637324341</v>
+        <v>70.53194723037132</v>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L41" t="n">
-        <v>48.76272716115524</v>
+        <v>123.8703159274065</v>
       </c>
       <c r="M41" t="n">
-        <v>145.1949001911523</v>
+        <v>48.11449666282353</v>
       </c>
       <c r="N41" t="n">
-        <v>145.1949001911523</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>145.1949001911523</v>
+        <v>123.8703159274065</v>
       </c>
       <c r="P41" t="n">
         <v>90.5657124162131</v>
@@ -37861,22 +37861,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>48.76994102798678</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>123.8703159274065</v>
       </c>
       <c r="M42" t="n">
-        <v>69.23292592754079</v>
+        <v>123.8703159274065</v>
       </c>
       <c r="N42" t="n">
-        <v>145.1949001911523</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>145.1949001911523</v>
+        <v>123.8703159274065</v>
       </c>
       <c r="P42" t="n">
-        <v>145.1949001911523</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -37940,22 +37940,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>35.32958606792226</v>
+        <v>40.99319692505016</v>
       </c>
       <c r="L43" t="n">
-        <v>85.18910315412126</v>
+        <v>90.85271401124916</v>
       </c>
       <c r="M43" t="n">
-        <v>97.1829548556457</v>
+        <v>102.8465657127736</v>
       </c>
       <c r="N43" t="n">
-        <v>101.7312502730337</v>
+        <v>107.3948611301616</v>
       </c>
       <c r="O43" t="n">
-        <v>82.18420580784479</v>
+        <v>87.8478166649727</v>
       </c>
       <c r="P43" t="n">
-        <v>54.8776371586986</v>
+        <v>60.5412480158265</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,22 +38019,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>104.0555615261842</v>
+        <v>28.29974226160125</v>
       </c>
       <c r="L44" t="n">
-        <v>126.8936236865379</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>126.8936236865379</v>
+        <v>123.8703159274065</v>
       </c>
       <c r="N44" t="n">
-        <v>126.8936236865379</v>
+        <v>123.8703159274065</v>
       </c>
       <c r="O44" t="n">
-        <v>17.71104706190766</v>
+        <v>123.8703159274065</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38098,22 +38098,22 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>48.76994102798678</v>
       </c>
       <c r="L45" t="n">
-        <v>51.6710949382643</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>126.8936236865379</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>126.8936236865379</v>
+        <v>123.8703159274065</v>
       </c>
       <c r="O45" t="n">
-        <v>126.8936236865379</v>
+        <v>123.8703159274065</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>123.8703159274065</v>
       </c>
       <c r="Q45" t="n">
         <v>70.09551364982758</v>
@@ -38177,22 +38177,22 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>35.32958606792226</v>
+        <v>40.99319692505016</v>
       </c>
       <c r="L46" t="n">
-        <v>85.18910315412126</v>
+        <v>90.85271401124916</v>
       </c>
       <c r="M46" t="n">
-        <v>97.1829548556457</v>
+        <v>102.8465657127736</v>
       </c>
       <c r="N46" t="n">
-        <v>101.7312502730337</v>
+        <v>107.3948611301616</v>
       </c>
       <c r="O46" t="n">
-        <v>82.18420580784479</v>
+        <v>87.8478166649727</v>
       </c>
       <c r="P46" t="n">
-        <v>54.8776371586986</v>
+        <v>60.5412480158265</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
